--- a/Filtered_By_Region/Region XI/Region XI_REPAIR.xlsx
+++ b/Filtered_By_Region/Region XI/Region XI_REPAIR.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU138"/>
+  <dimension ref="A1:AV138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,6 +674,11 @@
           <t>Unnamed: 46</t>
         </is>
       </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -723,7 +729,6 @@
       <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -732,17 +737,6 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
@@ -785,16 +779,11 @@
       <c r="AN2" t="n">
         <v>0</v>
       </c>
-      <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -850,7 +839,6 @@
       <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -859,17 +847,6 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
@@ -912,16 +889,11 @@
       <c r="AN3" t="n">
         <v>0</v>
       </c>
-      <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -977,7 +949,6 @@
       <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -986,17 +957,6 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
@@ -1039,16 +999,11 @@
       <c r="AN4" t="n">
         <v>0</v>
       </c>
-      <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1104,7 +1059,6 @@
       <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1113,17 +1067,6 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
@@ -1166,16 +1109,11 @@
       <c r="AN5" t="n">
         <v>0</v>
       </c>
-      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1231,7 +1169,6 @@
       <c r="L6" t="n">
         <v>1</v>
       </c>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1240,17 +1177,6 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
@@ -1293,16 +1219,11 @@
       <c r="AN6" t="n">
         <v>0</v>
       </c>
-      <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1358,7 +1279,6 @@
       <c r="L7" t="n">
         <v>1</v>
       </c>
-      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1367,17 +1287,6 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
@@ -1420,16 +1329,11 @@
       <c r="AN7" t="n">
         <v>0</v>
       </c>
-      <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1485,7 +1389,6 @@
       <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1494,17 +1397,6 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
@@ -1547,16 +1439,11 @@
       <c r="AN8" t="n">
         <v>0</v>
       </c>
-      <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1612,7 +1499,6 @@
       <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1621,17 +1507,6 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
@@ -1674,16 +1549,11 @@
       <c r="AN9" t="n">
         <v>0</v>
       </c>
-      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1739,7 +1609,6 @@
       <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1748,17 +1617,6 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
@@ -1801,16 +1659,11 @@
       <c r="AN10" t="n">
         <v>0</v>
       </c>
-      <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1866,7 +1719,6 @@
       <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1875,16 +1727,6 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
           <t>Waiting for Sub-aro</t>
@@ -1932,16 +1774,11 @@
       <c r="AN11" t="n">
         <v>0</v>
       </c>
-      <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1997,7 +1834,6 @@
       <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2006,16 +1842,6 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
           <t>Waiting for Sub-aro</t>
@@ -2063,16 +1889,11 @@
       <c r="AN12" t="n">
         <v>0</v>
       </c>
-      <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2128,7 +1949,6 @@
       <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2137,16 +1957,6 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
           <t>Waiting for Sub-aro</t>
@@ -2194,16 +2004,11 @@
       <c r="AN13" t="n">
         <v>0</v>
       </c>
-      <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
       <c r="AU13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2259,7 +2064,6 @@
       <c r="L14" t="n">
         <v>1</v>
       </c>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2268,17 +2072,6 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
@@ -2321,16 +2114,11 @@
       <c r="AN14" t="n">
         <v>0</v>
       </c>
-      <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
       <c r="AU14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2386,7 +2174,6 @@
       <c r="L15" t="n">
         <v>1</v>
       </c>
-      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2395,17 +2182,6 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
@@ -2448,16 +2224,11 @@
       <c r="AN15" t="n">
         <v>0</v>
       </c>
-      <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
       <c r="AU15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2513,7 +2284,6 @@
       <c r="L16" t="n">
         <v>1</v>
       </c>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2522,17 +2292,6 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
@@ -2575,16 +2334,11 @@
       <c r="AN16" t="n">
         <v>0</v>
       </c>
-      <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
       <c r="AU16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2640,7 +2394,6 @@
       <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2649,17 +2402,6 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
@@ -2702,16 +2444,11 @@
       <c r="AN17" t="n">
         <v>0</v>
       </c>
-      <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2767,7 +2504,6 @@
       <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2776,17 +2512,6 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
@@ -2829,16 +2554,11 @@
       <c r="AN18" t="n">
         <v>0</v>
       </c>
-      <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="inlineStr"/>
       <c r="AU18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2894,7 +2614,6 @@
       <c r="L19" t="n">
         <v>1</v>
       </c>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2903,17 +2622,6 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
@@ -2956,16 +2664,11 @@
       <c r="AN19" t="n">
         <v>0</v>
       </c>
-      <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="inlineStr"/>
       <c r="AU19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3021,7 +2724,6 @@
       <c r="L20" t="n">
         <v>1</v>
       </c>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3030,17 +2732,6 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
@@ -3083,16 +2774,11 @@
       <c r="AN20" t="n">
         <v>0</v>
       </c>
-      <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="inlineStr"/>
       <c r="AU20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3148,7 +2834,6 @@
       <c r="L21" t="n">
         <v>1</v>
       </c>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3157,17 +2842,6 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
@@ -3210,16 +2884,11 @@
       <c r="AN21" t="n">
         <v>0</v>
       </c>
-      <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
-      <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3275,7 +2944,6 @@
       <c r="L22" t="n">
         <v>1</v>
       </c>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
           <t>reverted</t>
@@ -3284,16 +2952,6 @@
       <c r="O22" t="n">
         <v>0</v>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
           <t>The Project was not implement because the buildings to be repair is beyond repair due to a  series of earthquake on year 2019</t>
@@ -3341,12 +2999,6 @@
       <c r="AN22" t="n">
         <v>0</v>
       </c>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
-      <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr">
         <is>
           <t>reverted</t>
@@ -3402,7 +3054,6 @@
       <c r="L23" t="n">
         <v>1</v>
       </c>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3411,17 +3062,6 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
@@ -3464,16 +3104,11 @@
       <c r="AN23" t="n">
         <v>0</v>
       </c>
-      <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
-      <c r="AT23" t="inlineStr"/>
       <c r="AU23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3529,7 +3164,6 @@
       <c r="L24" t="n">
         <v>1</v>
       </c>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3538,17 +3172,6 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
@@ -3591,16 +3214,11 @@
       <c r="AN24" t="n">
         <v>0</v>
       </c>
-      <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
-      <c r="AT24" t="inlineStr"/>
       <c r="AU24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3656,7 +3274,6 @@
       <c r="L25" t="n">
         <v>1</v>
       </c>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3665,17 +3282,6 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
@@ -3718,16 +3324,11 @@
       <c r="AN25" t="n">
         <v>0</v>
       </c>
-      <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
-      <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3783,7 +3384,6 @@
       <c r="L26" t="n">
         <v>1</v>
       </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3792,17 +3392,6 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
         <v>0</v>
       </c>
@@ -3845,16 +3434,11 @@
       <c r="AN26" t="n">
         <v>0</v>
       </c>
-      <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
-      <c r="AT26" t="inlineStr"/>
       <c r="AU26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3910,7 +3494,6 @@
       <c r="L27" t="n">
         <v>1</v>
       </c>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3919,17 +3502,6 @@
       <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
@@ -3972,16 +3544,11 @@
       <c r="AN27" t="n">
         <v>0</v>
       </c>
-      <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
-      <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4037,7 +3604,6 @@
       <c r="L28" t="n">
         <v>1</v>
       </c>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4046,17 +3612,6 @@
       <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
@@ -4099,16 +3654,11 @@
       <c r="AN28" t="n">
         <v>0</v>
       </c>
-      <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
-      <c r="AT28" t="inlineStr"/>
       <c r="AU28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4164,7 +3714,6 @@
       <c r="L29" t="n">
         <v>1</v>
       </c>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4173,17 +3722,6 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
@@ -4226,16 +3764,11 @@
       <c r="AN29" t="n">
         <v>0</v>
       </c>
-      <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
-      <c r="AT29" t="inlineStr"/>
       <c r="AU29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4291,7 +3824,6 @@
       <c r="L30" t="n">
         <v>1</v>
       </c>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4300,17 +3832,6 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
@@ -4353,16 +3874,11 @@
       <c r="AN30" t="n">
         <v>0</v>
       </c>
-      <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
-      <c r="AT30" t="inlineStr"/>
       <c r="AU30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4418,7 +3934,6 @@
       <c r="L31" t="n">
         <v>1</v>
       </c>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4427,17 +3942,6 @@
       <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
@@ -4480,16 +3984,11 @@
       <c r="AN31" t="n">
         <v>0</v>
       </c>
-      <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
-      <c r="AT31" t="inlineStr"/>
       <c r="AU31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4545,7 +4044,6 @@
       <c r="L32" t="n">
         <v>1</v>
       </c>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4554,17 +4052,6 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
@@ -4607,16 +4094,11 @@
       <c r="AN32" t="n">
         <v>0</v>
       </c>
-      <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
-      <c r="AT32" t="inlineStr"/>
       <c r="AU32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4672,7 +4154,6 @@
       <c r="L33" t="n">
         <v>1</v>
       </c>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4681,17 +4162,6 @@
       <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
@@ -4734,16 +4204,11 @@
       <c r="AN33" t="n">
         <v>0</v>
       </c>
-      <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
-      <c r="AT33" t="inlineStr"/>
       <c r="AU33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4799,7 +4264,6 @@
       <c r="L34" t="n">
         <v>1</v>
       </c>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4808,17 +4272,6 @@
       <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
@@ -4861,16 +4314,11 @@
       <c r="AN34" t="n">
         <v>0</v>
       </c>
-      <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
-      <c r="AT34" t="inlineStr"/>
       <c r="AU34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4926,7 +4374,6 @@
       <c r="L35" t="n">
         <v>1</v>
       </c>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4935,17 +4382,6 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
@@ -4988,16 +4424,11 @@
       <c r="AN35" t="n">
         <v>0</v>
       </c>
-      <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr"/>
-      <c r="AT35" t="inlineStr"/>
       <c r="AU35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5053,7 +4484,6 @@
       <c r="L36" t="n">
         <v>1</v>
       </c>
-      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5062,17 +4492,6 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
@@ -5115,16 +4534,11 @@
       <c r="AN36" t="n">
         <v>0</v>
       </c>
-      <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
-      <c r="AT36" t="inlineStr"/>
       <c r="AU36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5180,7 +4594,6 @@
       <c r="L37" t="n">
         <v>1</v>
       </c>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5189,17 +4602,6 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
@@ -5242,16 +4644,11 @@
       <c r="AN37" t="n">
         <v>0</v>
       </c>
-      <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr"/>
-      <c r="AT37" t="inlineStr"/>
       <c r="AU37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5307,7 +4704,6 @@
       <c r="L38" t="n">
         <v>1</v>
       </c>
-      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5316,16 +4712,6 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
           <t>Rebid</t>
@@ -5373,16 +4759,11 @@
       <c r="AN38" t="n">
         <v>0</v>
       </c>
-      <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr"/>
-      <c r="AT38" t="inlineStr"/>
       <c r="AU38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5438,7 +4819,6 @@
       <c r="L39" t="n">
         <v>1</v>
       </c>
-      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5447,16 +4827,6 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
           <t>Rebid</t>
@@ -5504,16 +4874,11 @@
       <c r="AN39" t="n">
         <v>0</v>
       </c>
-      <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="inlineStr"/>
-      <c r="AT39" t="inlineStr"/>
       <c r="AU39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5569,7 +4934,6 @@
       <c r="L40" t="n">
         <v>1</v>
       </c>
-      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5578,17 +4942,6 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
@@ -5631,16 +4984,11 @@
       <c r="AN40" t="n">
         <v>0</v>
       </c>
-      <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
-      <c r="AT40" t="inlineStr"/>
       <c r="AU40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5696,7 +5044,6 @@
       <c r="L41" t="n">
         <v>1</v>
       </c>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5705,17 +5052,6 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
@@ -5758,16 +5094,11 @@
       <c r="AN41" t="n">
         <v>0</v>
       </c>
-      <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr"/>
-      <c r="AT41" t="inlineStr"/>
       <c r="AU41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5823,7 +5154,6 @@
       <c r="L42" t="n">
         <v>1</v>
       </c>
-      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5832,17 +5162,6 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="n">
         <v>0</v>
       </c>
@@ -5885,16 +5204,11 @@
       <c r="AN42" t="n">
         <v>0</v>
       </c>
-      <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="inlineStr"/>
-      <c r="AT42" t="inlineStr"/>
       <c r="AU42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5950,7 +5264,6 @@
       <c r="L43" t="n">
         <v>1</v>
       </c>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5959,17 +5272,6 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
@@ -6012,16 +5314,11 @@
       <c r="AN43" t="n">
         <v>0</v>
       </c>
-      <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="inlineStr"/>
-      <c r="AT43" t="inlineStr"/>
       <c r="AU43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6077,7 +5374,6 @@
       <c r="L44" t="n">
         <v>1</v>
       </c>
-      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6086,17 +5382,6 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="n">
         <v>0</v>
       </c>
@@ -6139,16 +5424,11 @@
       <c r="AN44" t="n">
         <v>0</v>
       </c>
-      <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ44" t="inlineStr"/>
-      <c r="AR44" t="inlineStr"/>
-      <c r="AS44" t="inlineStr"/>
-      <c r="AT44" t="inlineStr"/>
       <c r="AU44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6204,7 +5484,6 @@
       <c r="L45" t="n">
         <v>1</v>
       </c>
-      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6213,17 +5492,6 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="n">
         <v>0</v>
       </c>
@@ -6274,10 +5542,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ45" t="inlineStr"/>
-      <c r="AR45" t="inlineStr"/>
-      <c r="AS45" t="inlineStr"/>
-      <c r="AT45" t="inlineStr"/>
       <c r="AU45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6333,7 +5597,6 @@
       <c r="L46" t="n">
         <v>1</v>
       </c>
-      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6342,17 +5605,6 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="n">
         <v>0</v>
       </c>
@@ -6403,10 +5655,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ46" t="inlineStr"/>
-      <c r="AR46" t="inlineStr"/>
-      <c r="AS46" t="inlineStr"/>
-      <c r="AT46" t="inlineStr"/>
       <c r="AU46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6478,9 +5726,6 @@
           <t>Nov. 26, 2021</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
           <t>November 29- December 18, 2018</t>
@@ -6566,10 +5811,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ47" t="inlineStr"/>
-      <c r="AR47" t="inlineStr"/>
-      <c r="AS47" t="inlineStr"/>
-      <c r="AT47" t="inlineStr"/>
       <c r="AU47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6625,7 +5866,6 @@
       <c r="L48" t="n">
         <v>1</v>
       </c>
-      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6639,17 +5879,11 @@
           <t>Nov. 26, 2021</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
           <t>June 30, 2021</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr">
         <is>
           <t>Sept. 27, 2021</t>
@@ -6660,7 +5894,6 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="n">
         <v>0</v>
       </c>
@@ -6711,10 +5944,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ48" t="inlineStr"/>
-      <c r="AR48" t="inlineStr"/>
-      <c r="AS48" t="inlineStr"/>
-      <c r="AT48" t="inlineStr"/>
       <c r="AU48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6786,9 +6015,6 @@
           <t>Nov. 26, 2021</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
         <is>
           <t>November 29- December 18, 2018</t>
@@ -6874,10 +6100,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ49" t="inlineStr"/>
-      <c r="AR49" t="inlineStr"/>
-      <c r="AS49" t="inlineStr"/>
-      <c r="AT49" t="inlineStr"/>
       <c r="AU49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6949,9 +6171,6 @@
           <t>Nov. 26, 2021</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr">
         <is>
           <t>November 29- December 18, 2018</t>
@@ -6982,7 +6201,6 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="n">
         <v>0</v>
       </c>
@@ -7033,10 +6251,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ50" t="inlineStr"/>
-      <c r="AR50" t="inlineStr"/>
-      <c r="AS50" t="inlineStr"/>
-      <c r="AT50" t="inlineStr"/>
       <c r="AU50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7108,9 +6322,6 @@
           <t>Nov. 26, 2021</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
         <is>
           <t>November 29- December 18, 2018</t>
@@ -7196,10 +6407,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ51" t="inlineStr"/>
-      <c r="AR51" t="inlineStr"/>
-      <c r="AS51" t="inlineStr"/>
-      <c r="AT51" t="inlineStr"/>
       <c r="AU51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7255,7 +6462,6 @@
       <c r="L52" t="n">
         <v>1</v>
       </c>
-      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7269,17 +6475,11 @@
           <t>Nov. 26, 2021</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
           <t>June 30, 2021</t>
         </is>
       </c>
-      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr">
         <is>
           <t>Sept. 27, 2021</t>
@@ -7290,7 +6490,6 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="n">
         <v>0</v>
       </c>
@@ -7341,10 +6540,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ52" t="inlineStr"/>
-      <c r="AR52" t="inlineStr"/>
-      <c r="AS52" t="inlineStr"/>
-      <c r="AT52" t="inlineStr"/>
       <c r="AU52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7400,7 +6595,6 @@
       <c r="L53" t="n">
         <v>1</v>
       </c>
-      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7414,17 +6608,11 @@
           <t>Nov. 26, 2021</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
           <t>June 30, 2021</t>
         </is>
       </c>
-      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr">
         <is>
           <t>Sept. 27, 2021</t>
@@ -7435,7 +6623,6 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="n">
         <v>0</v>
       </c>
@@ -7486,10 +6673,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ53" t="inlineStr"/>
-      <c r="AR53" t="inlineStr"/>
-      <c r="AS53" t="inlineStr"/>
-      <c r="AT53" t="inlineStr"/>
       <c r="AU53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7545,7 +6728,6 @@
       <c r="L54" t="n">
         <v>1</v>
       </c>
-      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7559,17 +6741,11 @@
           <t>Nov. 26, 2021</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
           <t>June 30, 2021</t>
         </is>
       </c>
-      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr">
         <is>
           <t>Sept. 27, 2021</t>
@@ -7580,7 +6756,6 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="n">
         <v>0</v>
       </c>
@@ -7631,10 +6806,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ54" t="inlineStr"/>
-      <c r="AR54" t="inlineStr"/>
-      <c r="AS54" t="inlineStr"/>
-      <c r="AT54" t="inlineStr"/>
       <c r="AU54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7690,7 +6861,6 @@
       <c r="L55" t="n">
         <v>1</v>
       </c>
-      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7704,17 +6874,11 @@
           <t>Nov. 26, 2021</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
           <t>June 30, 2021</t>
         </is>
       </c>
-      <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr">
         <is>
           <t>Sept. 27, 2021</t>
@@ -7725,7 +6889,6 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="n">
         <v>0</v>
       </c>
@@ -7776,10 +6939,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ55" t="inlineStr"/>
-      <c r="AR55" t="inlineStr"/>
-      <c r="AS55" t="inlineStr"/>
-      <c r="AT55" t="inlineStr"/>
       <c r="AU55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7835,7 +6994,6 @@
       <c r="L56" t="n">
         <v>1</v>
       </c>
-      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7849,17 +7007,11 @@
           <t>Nov. 26, 2021</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
           <t>June 30, 2021</t>
         </is>
       </c>
-      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr">
         <is>
           <t>Sept. 27, 2021</t>
@@ -7870,7 +7022,6 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="n">
         <v>0</v>
       </c>
@@ -7921,10 +7072,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ56" t="inlineStr"/>
-      <c r="AR56" t="inlineStr"/>
-      <c r="AS56" t="inlineStr"/>
-      <c r="AT56" t="inlineStr"/>
       <c r="AU56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7980,7 +7127,6 @@
       <c r="L57" t="n">
         <v>1</v>
       </c>
-      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7994,17 +7140,11 @@
           <t>Nov. 26, 2021</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
           <t>June 30, 2021</t>
         </is>
       </c>
-      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr">
         <is>
           <t>Sept. 27, 2021</t>
@@ -8015,7 +7155,6 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="n">
         <v>0</v>
       </c>
@@ -8066,10 +7205,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ57" t="inlineStr"/>
-      <c r="AR57" t="inlineStr"/>
-      <c r="AS57" t="inlineStr"/>
-      <c r="AT57" t="inlineStr"/>
       <c r="AU57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8125,7 +7260,6 @@
       <c r="L58" t="n">
         <v>1</v>
       </c>
-      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8139,17 +7273,11 @@
           <t>Nov. 26, 2021</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
           <t>June 30, 2021</t>
         </is>
       </c>
-      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr">
         <is>
           <t>Sept. 27, 2021</t>
@@ -8160,7 +7288,6 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="n">
         <v>0</v>
       </c>
@@ -8211,10 +7338,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ58" t="inlineStr"/>
-      <c r="AR58" t="inlineStr"/>
-      <c r="AS58" t="inlineStr"/>
-      <c r="AT58" t="inlineStr"/>
       <c r="AU58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8270,7 +7393,6 @@
       <c r="L59" t="n">
         <v>1</v>
       </c>
-      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8284,17 +7406,11 @@
           <t>Nov. 26, 2021</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
           <t>June 30, 2021</t>
         </is>
       </c>
-      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr">
         <is>
           <t>Sept. 27, 2021</t>
@@ -8305,7 +7421,6 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="n">
         <v>0</v>
       </c>
@@ -8356,10 +7471,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ59" t="inlineStr"/>
-      <c r="AR59" t="inlineStr"/>
-      <c r="AS59" t="inlineStr"/>
-      <c r="AT59" t="inlineStr"/>
       <c r="AU59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8415,7 +7526,6 @@
       <c r="L60" t="n">
         <v>1</v>
       </c>
-      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8429,17 +7539,11 @@
           <t>Dec. 26, 2021</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
           <t>June 30, 2021</t>
         </is>
       </c>
-      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr">
         <is>
           <t>Sept. 27, 2021</t>
@@ -8450,7 +7554,6 @@
           <t>MAG Corporation</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="n">
         <v>0</v>
       </c>
@@ -8501,10 +7604,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ60" t="inlineStr"/>
-      <c r="AR60" t="inlineStr"/>
-      <c r="AS60" t="inlineStr"/>
-      <c r="AT60" t="inlineStr"/>
       <c r="AU60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8560,7 +7659,6 @@
       <c r="L61" t="n">
         <v>1</v>
       </c>
-      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8574,17 +7672,11 @@
           <t>Nov. 26, 2021</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
           <t>June 30, 2021</t>
         </is>
       </c>
-      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr">
         <is>
           <t>Sept. 27, 2021</t>
@@ -8595,7 +7687,6 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="n">
         <v>0</v>
       </c>
@@ -8646,10 +7737,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ61" t="inlineStr"/>
-      <c r="AR61" t="inlineStr"/>
-      <c r="AS61" t="inlineStr"/>
-      <c r="AT61" t="inlineStr"/>
       <c r="AU61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8705,7 +7792,6 @@
       <c r="L62" t="n">
         <v>1</v>
       </c>
-      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8719,17 +7805,11 @@
           <t>Nov. 26, 2021</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
           <t>June 30, 2021</t>
         </is>
       </c>
-      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr">
         <is>
           <t>Sept. 27, 2021</t>
@@ -8740,7 +7820,6 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="n">
         <v>0</v>
       </c>
@@ -8791,10 +7870,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ62" t="inlineStr"/>
-      <c r="AR62" t="inlineStr"/>
-      <c r="AS62" t="inlineStr"/>
-      <c r="AT62" t="inlineStr"/>
       <c r="AU62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8866,9 +7941,6 @@
           <t>Nov. 26, 2021</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
           <t>November 29- December 18, 2018</t>
@@ -8954,10 +8026,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ63" t="inlineStr"/>
-      <c r="AR63" t="inlineStr"/>
-      <c r="AS63" t="inlineStr"/>
-      <c r="AT63" t="inlineStr"/>
       <c r="AU63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9013,7 +8081,6 @@
       <c r="L64" t="n">
         <v>1</v>
       </c>
-      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9027,17 +8094,11 @@
           <t>Nov. 26, 2021</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
           <t>June 30, 2021</t>
         </is>
       </c>
-      <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr">
         <is>
           <t>Sept. 27, 2021</t>
@@ -9048,7 +8109,6 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="n">
         <v>0</v>
       </c>
@@ -9099,10 +8159,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ64" t="inlineStr"/>
-      <c r="AR64" t="inlineStr"/>
-      <c r="AS64" t="inlineStr"/>
-      <c r="AT64" t="inlineStr"/>
       <c r="AU64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9158,7 +8214,6 @@
       <c r="L65" t="n">
         <v>1</v>
       </c>
-      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9172,17 +8227,11 @@
           <t>Nov. 26, 2021</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
           <t>June 30, 2021</t>
         </is>
       </c>
-      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr">
         <is>
           <t>Sept. 27, 2021</t>
@@ -9248,10 +8297,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ65" t="inlineStr"/>
-      <c r="AR65" t="inlineStr"/>
-      <c r="AS65" t="inlineStr"/>
-      <c r="AT65" t="inlineStr"/>
       <c r="AU65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9323,9 +8368,6 @@
           <t>Nov. 26, 2021</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr">
         <is>
           <t>November 29- December 18, 2018</t>
@@ -9356,7 +8398,6 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="n">
         <v>0</v>
       </c>
@@ -9407,10 +8448,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ66" t="inlineStr"/>
-      <c r="AR66" t="inlineStr"/>
-      <c r="AS66" t="inlineStr"/>
-      <c r="AT66" t="inlineStr"/>
       <c r="AU66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9466,7 +8503,6 @@
       <c r="L67" t="n">
         <v>1</v>
       </c>
-      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9475,17 +8511,6 @@
       <c r="O67" t="n">
         <v>1</v>
       </c>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="n">
         <v>0</v>
       </c>
@@ -9536,10 +8561,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ67" t="inlineStr"/>
-      <c r="AR67" t="inlineStr"/>
-      <c r="AS67" t="inlineStr"/>
-      <c r="AT67" t="inlineStr"/>
       <c r="AU67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9595,7 +8616,6 @@
       <c r="L68" t="n">
         <v>1</v>
       </c>
-      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9604,17 +8624,6 @@
       <c r="O68" t="n">
         <v>1</v>
       </c>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="n">
         <v>0</v>
       </c>
@@ -9665,10 +8674,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ68" t="inlineStr"/>
-      <c r="AR68" t="inlineStr"/>
-      <c r="AS68" t="inlineStr"/>
-      <c r="AT68" t="inlineStr"/>
       <c r="AU68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9724,7 +8729,6 @@
       <c r="L69" t="n">
         <v>1</v>
       </c>
-      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9733,17 +8737,6 @@
       <c r="O69" t="n">
         <v>1</v>
       </c>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="n">
         <v>0</v>
       </c>
@@ -9794,10 +8787,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ69" t="inlineStr"/>
-      <c r="AR69" t="inlineStr"/>
-      <c r="AS69" t="inlineStr"/>
-      <c r="AT69" t="inlineStr"/>
       <c r="AU69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9853,7 +8842,6 @@
       <c r="L70" t="n">
         <v>1</v>
       </c>
-      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9862,17 +8850,6 @@
       <c r="O70" t="n">
         <v>1</v>
       </c>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="n">
         <v>0</v>
       </c>
@@ -9923,10 +8900,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ70" t="inlineStr"/>
-      <c r="AR70" t="inlineStr"/>
-      <c r="AS70" t="inlineStr"/>
-      <c r="AT70" t="inlineStr"/>
       <c r="AU70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9982,7 +8955,6 @@
       <c r="L71" t="n">
         <v>1</v>
       </c>
-      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9991,17 +8963,6 @@
       <c r="O71" t="n">
         <v>1</v>
       </c>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="n">
         <v>0</v>
       </c>
@@ -10052,10 +9013,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ71" t="inlineStr"/>
-      <c r="AR71" t="inlineStr"/>
-      <c r="AS71" t="inlineStr"/>
-      <c r="AT71" t="inlineStr"/>
       <c r="AU71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10111,7 +9068,6 @@
       <c r="L72" t="n">
         <v>1</v>
       </c>
-      <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10120,17 +9076,6 @@
       <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="n">
         <v>0</v>
       </c>
@@ -10181,10 +9126,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ72" t="inlineStr"/>
-      <c r="AR72" t="inlineStr"/>
-      <c r="AS72" t="inlineStr"/>
-      <c r="AT72" t="inlineStr"/>
       <c r="AU72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10240,7 +9181,6 @@
       <c r="L73" t="n">
         <v>1</v>
       </c>
-      <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10254,16 +9194,6 @@
           <t>April 03, 2022</t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="n">
         <v>0</v>
       </c>
@@ -10314,10 +9244,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ73" t="inlineStr"/>
-      <c r="AR73" t="inlineStr"/>
-      <c r="AS73" t="inlineStr"/>
-      <c r="AT73" t="inlineStr"/>
       <c r="AU73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10373,7 +9299,6 @@
       <c r="L74" t="n">
         <v>1</v>
       </c>
-      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10382,17 +9307,6 @@
       <c r="O74" t="n">
         <v>1</v>
       </c>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="n">
         <v>0</v>
       </c>
@@ -10443,10 +9357,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ74" t="inlineStr"/>
-      <c r="AR74" t="inlineStr"/>
-      <c r="AS74" t="inlineStr"/>
-      <c r="AT74" t="inlineStr"/>
       <c r="AU74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10502,7 +9412,6 @@
       <c r="L75" t="n">
         <v>1</v>
       </c>
-      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10516,16 +9425,6 @@
           <t>March 18, 2022</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="n">
         <v>0</v>
       </c>
@@ -10576,10 +9475,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ75" t="inlineStr"/>
-      <c r="AR75" t="inlineStr"/>
-      <c r="AS75" t="inlineStr"/>
-      <c r="AT75" t="inlineStr"/>
       <c r="AU75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10635,7 +9530,6 @@
       <c r="L76" t="n">
         <v>1</v>
       </c>
-      <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10644,17 +9538,6 @@
       <c r="O76" t="n">
         <v>1</v>
       </c>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="n">
         <v>0</v>
       </c>
@@ -10705,10 +9588,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ76" t="inlineStr"/>
-      <c r="AR76" t="inlineStr"/>
-      <c r="AS76" t="inlineStr"/>
-      <c r="AT76" t="inlineStr"/>
       <c r="AU76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10764,7 +9643,6 @@
       <c r="L77" t="n">
         <v>1</v>
       </c>
-      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10773,17 +9651,6 @@
       <c r="O77" t="n">
         <v>1</v>
       </c>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="n">
         <v>0</v>
       </c>
@@ -10834,10 +9701,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ77" t="inlineStr"/>
-      <c r="AR77" t="inlineStr"/>
-      <c r="AS77" t="inlineStr"/>
-      <c r="AT77" t="inlineStr"/>
       <c r="AU77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10893,7 +9756,6 @@
       <c r="L78" t="n">
         <v>1</v>
       </c>
-      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10902,17 +9764,6 @@
       <c r="O78" t="n">
         <v>1</v>
       </c>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="n">
         <v>0</v>
       </c>
@@ -10963,10 +9814,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ78" t="inlineStr"/>
-      <c r="AR78" t="inlineStr"/>
-      <c r="AS78" t="inlineStr"/>
-      <c r="AT78" t="inlineStr"/>
       <c r="AU78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11022,7 +9869,6 @@
       <c r="L79" t="n">
         <v>1</v>
       </c>
-      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11031,17 +9877,6 @@
       <c r="O79" t="n">
         <v>1</v>
       </c>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="n">
         <v>0</v>
       </c>
@@ -11092,10 +9927,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ79" t="inlineStr"/>
-      <c r="AR79" t="inlineStr"/>
-      <c r="AS79" t="inlineStr"/>
-      <c r="AT79" t="inlineStr"/>
       <c r="AU79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11151,7 +9982,6 @@
       <c r="L80" t="n">
         <v>1</v>
       </c>
-      <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11160,17 +9990,6 @@
       <c r="O80" t="n">
         <v>1</v>
       </c>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="n">
         <v>0</v>
       </c>
@@ -11221,10 +10040,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ80" t="inlineStr"/>
-      <c r="AR80" t="inlineStr"/>
-      <c r="AS80" t="inlineStr"/>
-      <c r="AT80" t="inlineStr"/>
       <c r="AU80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11280,7 +10095,6 @@
       <c r="L81" t="n">
         <v>1</v>
       </c>
-      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11289,17 +10103,6 @@
       <c r="O81" t="n">
         <v>1</v>
       </c>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="n">
         <v>0</v>
       </c>
@@ -11350,10 +10153,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ81" t="inlineStr"/>
-      <c r="AR81" t="inlineStr"/>
-      <c r="AS81" t="inlineStr"/>
-      <c r="AT81" t="inlineStr"/>
       <c r="AU81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11409,7 +10208,6 @@
       <c r="L82" t="n">
         <v>1</v>
       </c>
-      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11418,17 +10216,6 @@
       <c r="O82" t="n">
         <v>1</v>
       </c>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="n">
         <v>0</v>
       </c>
@@ -11479,10 +10266,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ82" t="inlineStr"/>
-      <c r="AR82" t="inlineStr"/>
-      <c r="AS82" t="inlineStr"/>
-      <c r="AT82" t="inlineStr"/>
       <c r="AU82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11538,7 +10321,6 @@
       <c r="L83" t="n">
         <v>1</v>
       </c>
-      <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11547,17 +10329,6 @@
       <c r="O83" t="n">
         <v>1</v>
       </c>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="n">
         <v>0</v>
       </c>
@@ -11608,10 +10379,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ83" t="inlineStr"/>
-      <c r="AR83" t="inlineStr"/>
-      <c r="AS83" t="inlineStr"/>
-      <c r="AT83" t="inlineStr"/>
       <c r="AU83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11667,7 +10434,6 @@
       <c r="L84" t="n">
         <v>1</v>
       </c>
-      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11676,17 +10442,6 @@
       <c r="O84" t="n">
         <v>1</v>
       </c>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="n">
         <v>0</v>
       </c>
@@ -11737,10 +10492,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ84" t="inlineStr"/>
-      <c r="AR84" t="inlineStr"/>
-      <c r="AS84" t="inlineStr"/>
-      <c r="AT84" t="inlineStr"/>
       <c r="AU84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11796,7 +10547,6 @@
       <c r="L85" t="n">
         <v>1</v>
       </c>
-      <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11810,15 +10560,12 @@
           <t>1/16/2022</t>
         </is>
       </c>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr">
         <is>
           <t>6/3-23/2021</t>
         </is>
       </c>
-      <c r="U85" s="2" t="n">
+      <c r="U85" s="3" t="n">
         <v>44506</v>
       </c>
       <c r="V85" t="inlineStr">
@@ -11826,14 +10573,11 @@
           <t>6-23-2021</t>
         </is>
       </c>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr">
         <is>
           <t>Johnray Developer and supply</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="n">
         <v>0</v>
       </c>
@@ -11884,10 +10628,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ85" t="inlineStr"/>
-      <c r="AR85" t="inlineStr"/>
-      <c r="AS85" t="inlineStr"/>
-      <c r="AT85" t="inlineStr"/>
       <c r="AU85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11943,7 +10683,6 @@
       <c r="L86" t="n">
         <v>1</v>
       </c>
-      <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11957,15 +10696,12 @@
           <t>1/16/2022</t>
         </is>
       </c>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr">
         <is>
           <t>6/3-23/2021</t>
         </is>
       </c>
-      <c r="U86" s="2" t="n">
+      <c r="U86" s="3" t="n">
         <v>44506</v>
       </c>
       <c r="V86" t="inlineStr">
@@ -11973,14 +10709,11 @@
           <t>6-23-2021</t>
         </is>
       </c>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr">
         <is>
           <t>Johnray Developer and supply</t>
         </is>
       </c>
-      <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="n">
         <v>0</v>
       </c>
@@ -12031,10 +10764,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ86" t="inlineStr"/>
-      <c r="AR86" t="inlineStr"/>
-      <c r="AS86" t="inlineStr"/>
-      <c r="AT86" t="inlineStr"/>
       <c r="AU86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12090,7 +10819,6 @@
       <c r="L87" t="n">
         <v>1</v>
       </c>
-      <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12104,13 +10832,6 @@
           <t>11/14/2021</t>
         </is>
       </c>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr">
         <is>
           <t>08/25/2021</t>
@@ -12121,7 +10842,6 @@
           <t>R.Fabale Const. Corp.</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="n">
         <v>0</v>
       </c>
@@ -12172,10 +10892,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ87" t="inlineStr"/>
-      <c r="AR87" t="inlineStr"/>
-      <c r="AS87" t="inlineStr"/>
-      <c r="AT87" t="inlineStr"/>
       <c r="AU87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12231,7 +10947,6 @@
       <c r="L88" t="n">
         <v>1</v>
       </c>
-      <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12245,13 +10960,6 @@
           <t>01/26/2022</t>
         </is>
       </c>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr">
         <is>
           <t>08/23/2021</t>
@@ -12262,7 +10970,6 @@
           <t>VGG Const. Corp.</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="n">
         <v>0</v>
       </c>
@@ -12313,10 +11020,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ88" t="inlineStr"/>
-      <c r="AR88" t="inlineStr"/>
-      <c r="AS88" t="inlineStr"/>
-      <c r="AT88" t="inlineStr"/>
       <c r="AU88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12372,7 +11075,6 @@
       <c r="L89" t="n">
         <v>1</v>
       </c>
-      <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12386,13 +11088,6 @@
           <t>01/28/2022</t>
         </is>
       </c>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr">
         <is>
           <t>08/25/2021</t>
@@ -12403,7 +11098,6 @@
           <t>R.Fabale Const. Corp.</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="n">
         <v>0</v>
       </c>
@@ -12454,10 +11148,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ89" t="inlineStr"/>
-      <c r="AR89" t="inlineStr"/>
-      <c r="AS89" t="inlineStr"/>
-      <c r="AT89" t="inlineStr"/>
       <c r="AU89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12513,7 +11203,6 @@
       <c r="L90" t="n">
         <v>1</v>
       </c>
-      <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12522,16 +11211,9 @@
       <c r="O90" t="n">
         <v>1</v>
       </c>
-      <c r="P90" s="2" t="n">
+      <c r="P90" s="3" t="n">
         <v>44512</v>
       </c>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr">
         <is>
           <t>08/23/2021</t>
@@ -12542,7 +11224,6 @@
           <t>VGG Const. Corp.</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="n">
         <v>0</v>
       </c>
@@ -12593,10 +11274,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ90" t="inlineStr"/>
-      <c r="AR90" t="inlineStr"/>
-      <c r="AS90" t="inlineStr"/>
-      <c r="AT90" t="inlineStr"/>
       <c r="AU90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12652,7 +11329,6 @@
       <c r="L91" t="n">
         <v>1</v>
       </c>
-      <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12661,17 +11337,6 @@
       <c r="O91" t="n">
         <v>1</v>
       </c>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="n">
         <v>0</v>
       </c>
@@ -12722,10 +11387,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ91" t="inlineStr"/>
-      <c r="AR91" t="inlineStr"/>
-      <c r="AS91" t="inlineStr"/>
-      <c r="AT91" t="inlineStr"/>
       <c r="AU91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12781,7 +11442,6 @@
       <c r="L92" t="n">
         <v>1</v>
       </c>
-      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12790,17 +11450,6 @@
       <c r="O92" t="n">
         <v>1</v>
       </c>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="n">
         <v>0</v>
       </c>
@@ -12851,10 +11500,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ92" t="inlineStr"/>
-      <c r="AR92" t="inlineStr"/>
-      <c r="AS92" t="inlineStr"/>
-      <c r="AT92" t="inlineStr"/>
       <c r="AU92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12910,7 +11555,6 @@
       <c r="L93" t="n">
         <v>1</v>
       </c>
-      <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12919,17 +11563,6 @@
       <c r="O93" t="n">
         <v>1</v>
       </c>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="n">
         <v>0</v>
       </c>
@@ -12980,10 +11613,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ93" t="inlineStr"/>
-      <c r="AR93" t="inlineStr"/>
-      <c r="AS93" t="inlineStr"/>
-      <c r="AT93" t="inlineStr"/>
       <c r="AU93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13039,7 +11668,6 @@
       <c r="L94" t="n">
         <v>1</v>
       </c>
-      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13048,17 +11676,6 @@
       <c r="O94" t="n">
         <v>1</v>
       </c>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="n">
         <v>0</v>
       </c>
@@ -13109,10 +11726,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ94" t="inlineStr"/>
-      <c r="AR94" t="inlineStr"/>
-      <c r="AS94" t="inlineStr"/>
-      <c r="AT94" t="inlineStr"/>
       <c r="AU94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13168,7 +11781,6 @@
       <c r="L95" t="n">
         <v>1</v>
       </c>
-      <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13177,17 +11789,6 @@
       <c r="O95" t="n">
         <v>1</v>
       </c>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="n">
         <v>0</v>
       </c>
@@ -13238,10 +11839,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ95" t="inlineStr"/>
-      <c r="AR95" t="inlineStr"/>
-      <c r="AS95" t="inlineStr"/>
-      <c r="AT95" t="inlineStr"/>
       <c r="AU95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13297,7 +11894,6 @@
       <c r="L96" t="n">
         <v>1</v>
       </c>
-      <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13306,17 +11902,6 @@
       <c r="O96" t="n">
         <v>1</v>
       </c>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="n">
         <v>0</v>
       </c>
@@ -13367,10 +11952,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ96" t="inlineStr"/>
-      <c r="AR96" t="inlineStr"/>
-      <c r="AS96" t="inlineStr"/>
-      <c r="AT96" t="inlineStr"/>
       <c r="AU96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13426,7 +12007,6 @@
       <c r="L97" t="n">
         <v>1</v>
       </c>
-      <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13435,17 +12015,6 @@
       <c r="O97" t="n">
         <v>1</v>
       </c>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="n">
         <v>0</v>
       </c>
@@ -13488,15 +12057,11 @@
       <c r="AN97" t="n">
         <v>0</v>
       </c>
-      <c r="AO97" t="inlineStr"/>
       <c r="AP97" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ97" t="inlineStr"/>
-      <c r="AR97" t="inlineStr"/>
-      <c r="AS97" t="inlineStr"/>
       <c r="AT97" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -13557,7 +12122,6 @@
       <c r="L98" t="n">
         <v>1</v>
       </c>
-      <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13566,17 +12130,6 @@
       <c r="O98" t="n">
         <v>1</v>
       </c>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="n">
         <v>0</v>
       </c>
@@ -13619,15 +12172,11 @@
       <c r="AN98" t="n">
         <v>0</v>
       </c>
-      <c r="AO98" t="inlineStr"/>
       <c r="AP98" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ98" t="inlineStr"/>
-      <c r="AR98" t="inlineStr"/>
-      <c r="AS98" t="inlineStr"/>
       <c r="AT98" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -13688,7 +12237,6 @@
       <c r="L99" t="n">
         <v>1</v>
       </c>
-      <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13697,17 +12245,6 @@
       <c r="O99" t="n">
         <v>1</v>
       </c>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="n">
         <v>0</v>
       </c>
@@ -13750,15 +12287,11 @@
       <c r="AN99" t="n">
         <v>0</v>
       </c>
-      <c r="AO99" t="inlineStr"/>
       <c r="AP99" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ99" t="inlineStr"/>
-      <c r="AR99" t="inlineStr"/>
-      <c r="AS99" t="inlineStr"/>
       <c r="AT99" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -13839,21 +12372,16 @@
           <t>July 24, 2024</t>
         </is>
       </c>
-      <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr">
         <is>
           <t>23LB0154</t>
         </is>
       </c>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr">
         <is>
           <t>NOV. 26, 2023</t>
         </is>
       </c>
-      <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr">
         <is>
           <t>Dec. 28, 2023</t>
@@ -13864,7 +12392,6 @@
           <t>MarkAnthony Construction and Supply JV Andrich Construction</t>
         </is>
       </c>
-      <c r="Z100" t="inlineStr"/>
       <c r="AA100" t="n">
         <v>0</v>
       </c>
@@ -13907,14 +12434,9 @@
       <c r="AN100" t="n">
         <v>0</v>
       </c>
-      <c r="AO100" t="inlineStr"/>
       <c r="AP100" t="n">
         <v>8.24</v>
       </c>
-      <c r="AQ100" t="inlineStr"/>
-      <c r="AR100" t="inlineStr"/>
-      <c r="AS100" t="inlineStr"/>
-      <c r="AT100" t="inlineStr"/>
       <c r="AU100" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13990,20 +12512,11 @@
           <t>May 16, 2024</t>
         </is>
       </c>
-      <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr">
         <is>
           <t>23LC0084</t>
         </is>
       </c>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="n">
         <v>0</v>
       </c>
@@ -14046,14 +12559,9 @@
       <c r="AN101" t="n">
         <v>0</v>
       </c>
-      <c r="AO101" t="inlineStr"/>
       <c r="AP101" t="n">
         <v>7.24</v>
       </c>
-      <c r="AQ101" t="inlineStr"/>
-      <c r="AR101" t="inlineStr"/>
-      <c r="AS101" t="inlineStr"/>
-      <c r="AT101" t="inlineStr"/>
       <c r="AU101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14124,14 +12632,11 @@
       <c r="O102" t="n">
         <v>1</v>
       </c>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr">
         <is>
           <t>23LD0116</t>
         </is>
       </c>
-      <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr">
         <is>
           <t>October 20, 2023</t>
@@ -14162,7 +12667,6 @@
           <t>ZJN DEVELOPMENT CONSTRUCTION AND SUPPLY CORPORATION</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="n">
         <v>0</v>
       </c>
@@ -14205,14 +12709,9 @@
       <c r="AN102" t="n">
         <v>0</v>
       </c>
-      <c r="AO102" t="inlineStr"/>
       <c r="AP102" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ102" t="inlineStr"/>
-      <c r="AR102" t="inlineStr"/>
-      <c r="AS102" t="inlineStr"/>
-      <c r="AT102" t="inlineStr"/>
       <c r="AU102" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14283,14 +12782,11 @@
       <c r="O103" t="n">
         <v>1</v>
       </c>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr">
         <is>
           <t>23LD0118</t>
         </is>
       </c>
-      <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr">
         <is>
           <t>October 27, 2023</t>
@@ -14321,7 +12817,6 @@
           <t>K &amp; C BUILDERS</t>
         </is>
       </c>
-      <c r="Z103" t="inlineStr"/>
       <c r="AA103" t="n">
         <v>0</v>
       </c>
@@ -14364,14 +12859,9 @@
       <c r="AN103" t="n">
         <v>0</v>
       </c>
-      <c r="AO103" t="inlineStr"/>
       <c r="AP103" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ103" t="inlineStr"/>
-      <c r="AR103" t="inlineStr"/>
-      <c r="AS103" t="inlineStr"/>
-      <c r="AT103" t="inlineStr"/>
       <c r="AU103" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14442,14 +12932,11 @@
       <c r="O104" t="n">
         <v>1</v>
       </c>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr">
         <is>
           <t>23LD0124</t>
         </is>
       </c>
-      <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr">
         <is>
           <t>November 06, 2023</t>
@@ -14480,7 +12967,6 @@
           <t>K &amp; C BUILDERS</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="n">
         <v>0</v>
       </c>
@@ -14523,14 +13009,9 @@
       <c r="AN104" t="n">
         <v>0</v>
       </c>
-      <c r="AO104" t="inlineStr"/>
       <c r="AP104" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ104" t="inlineStr"/>
-      <c r="AR104" t="inlineStr"/>
-      <c r="AS104" t="inlineStr"/>
-      <c r="AT104" t="inlineStr"/>
       <c r="AU104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14601,14 +13082,11 @@
       <c r="O105" t="n">
         <v>1</v>
       </c>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr">
         <is>
           <t>23LD0119</t>
         </is>
       </c>
-      <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr">
         <is>
           <t>October 27, 2023</t>
@@ -14639,7 +13117,6 @@
           <t>UPSCALE BUILDERS AND SUPPLY CORP.</t>
         </is>
       </c>
-      <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="n">
         <v>0</v>
       </c>
@@ -14682,14 +13159,9 @@
       <c r="AN105" t="n">
         <v>0</v>
       </c>
-      <c r="AO105" t="inlineStr"/>
       <c r="AP105" t="n">
         <v>6.24</v>
       </c>
-      <c r="AQ105" t="inlineStr"/>
-      <c r="AR105" t="inlineStr"/>
-      <c r="AS105" t="inlineStr"/>
-      <c r="AT105" t="inlineStr"/>
       <c r="AU105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14760,14 +13232,11 @@
       <c r="O106" t="n">
         <v>1</v>
       </c>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr">
         <is>
           <t>23LD0125</t>
         </is>
       </c>
-      <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr">
         <is>
           <t>November 06, 2023</t>
@@ -14798,7 +13267,6 @@
           <t>MARK ANTHONY CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z106" t="inlineStr"/>
       <c r="AA106" t="n">
         <v>0</v>
       </c>
@@ -14841,14 +13309,9 @@
       <c r="AN106" t="n">
         <v>0</v>
       </c>
-      <c r="AO106" t="inlineStr"/>
       <c r="AP106" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ106" t="inlineStr"/>
-      <c r="AR106" t="inlineStr"/>
-      <c r="AS106" t="inlineStr"/>
-      <c r="AT106" t="inlineStr"/>
       <c r="AU106" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14921,14 +13384,11 @@
       <c r="O107" t="n">
         <v>1</v>
       </c>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr">
         <is>
           <t>23LD0115</t>
         </is>
       </c>
-      <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr">
         <is>
           <t>October 06, 2023</t>
@@ -14959,7 +13419,6 @@
           <t>ZJN DEVELOPMENT CONSTRUCTION AND SUPPLY CORPORATION</t>
         </is>
       </c>
-      <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="n">
         <v>0</v>
       </c>
@@ -15002,14 +13461,9 @@
       <c r="AN107" t="n">
         <v>0</v>
       </c>
-      <c r="AO107" t="inlineStr"/>
       <c r="AP107" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ107" t="inlineStr"/>
-      <c r="AR107" t="inlineStr"/>
-      <c r="AS107" t="inlineStr"/>
-      <c r="AT107" t="inlineStr"/>
       <c r="AU107" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15080,14 +13534,11 @@
       <c r="O108" t="n">
         <v>1</v>
       </c>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr">
         <is>
           <t>23LD0117</t>
         </is>
       </c>
-      <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr">
         <is>
           <t>October 20, 2023</t>
@@ -15118,7 +13569,6 @@
           <t>MJTP CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z108" t="inlineStr"/>
       <c r="AA108" t="n">
         <v>0</v>
       </c>
@@ -15161,14 +13611,9 @@
       <c r="AN108" t="n">
         <v>0</v>
       </c>
-      <c r="AO108" t="inlineStr"/>
       <c r="AP108" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ108" t="inlineStr"/>
-      <c r="AR108" t="inlineStr"/>
-      <c r="AS108" t="inlineStr"/>
-      <c r="AT108" t="inlineStr"/>
       <c r="AU108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15239,10 +13684,9 @@
       <c r="O109" t="n">
         <v>1</v>
       </c>
-      <c r="P109" s="2" t="n">
+      <c r="P109" s="3" t="n">
         <v>45308</v>
       </c>
-      <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr">
         <is>
           <t>P00775431MN-CW1</t>
@@ -15253,19 +13697,19 @@
           <t>23LD0112</t>
         </is>
       </c>
-      <c r="T109" s="2" t="n">
+      <c r="T109" s="3" t="n">
         <v>45173</v>
       </c>
-      <c r="U109" s="2" t="n">
+      <c r="U109" s="3" t="n">
         <v>45181</v>
       </c>
-      <c r="V109" s="2" t="n">
+      <c r="V109" s="3" t="n">
         <v>45195</v>
       </c>
-      <c r="W109" s="2" t="n">
+      <c r="W109" s="3" t="n">
         <v>45209</v>
       </c>
-      <c r="X109" s="2" t="n">
+      <c r="X109" s="3" t="n">
         <v>45219</v>
       </c>
       <c r="Y109" t="inlineStr">
@@ -15273,7 +13717,6 @@
           <t>PRISM BUILDERS</t>
         </is>
       </c>
-      <c r="Z109" t="inlineStr"/>
       <c r="AA109" t="n">
         <v>0</v>
       </c>
@@ -15316,14 +13759,9 @@
       <c r="AN109" t="n">
         <v>0</v>
       </c>
-      <c r="AO109" t="inlineStr"/>
       <c r="AP109" t="n">
         <v>12.24</v>
       </c>
-      <c r="AQ109" t="inlineStr"/>
-      <c r="AR109" t="inlineStr"/>
-      <c r="AS109" t="inlineStr"/>
-      <c r="AT109" t="inlineStr"/>
       <c r="AU109" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15394,10 +13832,9 @@
       <c r="O110" t="n">
         <v>1</v>
       </c>
-      <c r="P110" s="2" t="n">
+      <c r="P110" s="3" t="n">
         <v>45308</v>
       </c>
-      <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr">
         <is>
           <t>P00775432MN-CW1</t>
@@ -15408,19 +13845,19 @@
           <t>23LD0112</t>
         </is>
       </c>
-      <c r="T110" s="2" t="n">
+      <c r="T110" s="3" t="n">
         <v>45173</v>
       </c>
-      <c r="U110" s="2" t="n">
+      <c r="U110" s="3" t="n">
         <v>45181</v>
       </c>
-      <c r="V110" s="2" t="n">
+      <c r="V110" s="3" t="n">
         <v>45195</v>
       </c>
-      <c r="W110" s="2" t="n">
+      <c r="W110" s="3" t="n">
         <v>45209</v>
       </c>
-      <c r="X110" s="2" t="n">
+      <c r="X110" s="3" t="n">
         <v>45219</v>
       </c>
       <c r="Y110" t="inlineStr">
@@ -15428,7 +13865,6 @@
           <t>PRISM BUILDERS</t>
         </is>
       </c>
-      <c r="Z110" t="inlineStr"/>
       <c r="AA110" t="n">
         <v>0</v>
       </c>
@@ -15471,14 +13907,9 @@
       <c r="AN110" t="n">
         <v>0</v>
       </c>
-      <c r="AO110" t="inlineStr"/>
       <c r="AP110" t="n">
         <v>3.24</v>
       </c>
-      <c r="AQ110" t="inlineStr"/>
-      <c r="AR110" t="inlineStr"/>
-      <c r="AS110" t="inlineStr"/>
-      <c r="AT110" t="inlineStr"/>
       <c r="AU110" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15551,10 +13982,9 @@
       <c r="O111" t="n">
         <v>1</v>
       </c>
-      <c r="P111" s="2" t="n">
+      <c r="P111" s="3" t="n">
         <v>45308</v>
       </c>
-      <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr">
         <is>
           <t>P00775434MN-CW1</t>
@@ -15565,19 +13995,19 @@
           <t>23LD0113</t>
         </is>
       </c>
-      <c r="T111" s="2" t="n">
+      <c r="T111" s="3" t="n">
         <v>45173</v>
       </c>
-      <c r="U111" s="2" t="n">
+      <c r="U111" s="3" t="n">
         <v>45181</v>
       </c>
-      <c r="V111" s="2" t="n">
+      <c r="V111" s="3" t="n">
         <v>45195</v>
       </c>
-      <c r="W111" s="2" t="n">
+      <c r="W111" s="3" t="n">
         <v>45209</v>
       </c>
-      <c r="X111" s="2" t="n">
+      <c r="X111" s="3" t="n">
         <v>45219</v>
       </c>
       <c r="Y111" t="inlineStr">
@@ -15585,7 +14015,6 @@
           <t>TWO DEGREES CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z111" t="inlineStr"/>
       <c r="AA111" t="n">
         <v>0</v>
       </c>
@@ -15628,14 +14057,9 @@
       <c r="AN111" t="n">
         <v>0</v>
       </c>
-      <c r="AO111" t="inlineStr"/>
       <c r="AP111" t="n">
         <v>12.24</v>
       </c>
-      <c r="AQ111" t="inlineStr"/>
-      <c r="AR111" t="inlineStr"/>
-      <c r="AS111" t="inlineStr"/>
-      <c r="AT111" t="inlineStr"/>
       <c r="AU111" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15706,10 +14130,9 @@
       <c r="O112" t="n">
         <v>1</v>
       </c>
-      <c r="P112" s="2" t="n">
+      <c r="P112" s="3" t="n">
         <v>45308</v>
       </c>
-      <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr">
         <is>
           <t>P00775435MN-CW1</t>
@@ -15720,19 +14143,19 @@
           <t>23LD0112</t>
         </is>
       </c>
-      <c r="T112" s="2" t="n">
+      <c r="T112" s="3" t="n">
         <v>45173</v>
       </c>
-      <c r="U112" s="2" t="n">
+      <c r="U112" s="3" t="n">
         <v>45181</v>
       </c>
-      <c r="V112" s="2" t="n">
+      <c r="V112" s="3" t="n">
         <v>45195</v>
       </c>
-      <c r="W112" s="2" t="n">
+      <c r="W112" s="3" t="n">
         <v>45209</v>
       </c>
-      <c r="X112" s="2" t="n">
+      <c r="X112" s="3" t="n">
         <v>45219</v>
       </c>
       <c r="Y112" t="inlineStr">
@@ -15740,7 +14163,6 @@
           <t>PRISM BUILDERS</t>
         </is>
       </c>
-      <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="n">
         <v>0</v>
       </c>
@@ -15783,14 +14205,9 @@
       <c r="AN112" t="n">
         <v>0</v>
       </c>
-      <c r="AO112" t="inlineStr"/>
       <c r="AP112" t="n">
         <v>12.24</v>
       </c>
-      <c r="AQ112" t="inlineStr"/>
-      <c r="AR112" t="inlineStr"/>
-      <c r="AS112" t="inlineStr"/>
-      <c r="AT112" t="inlineStr"/>
       <c r="AU112" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15861,10 +14278,9 @@
       <c r="O113" t="n">
         <v>1</v>
       </c>
-      <c r="P113" s="2" t="n">
+      <c r="P113" s="3" t="n">
         <v>45308</v>
       </c>
-      <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr">
         <is>
           <t>P00775433MN-CW1</t>
@@ -15875,19 +14291,19 @@
           <t>23LD0113</t>
         </is>
       </c>
-      <c r="T113" s="2" t="n">
+      <c r="T113" s="3" t="n">
         <v>45173</v>
       </c>
-      <c r="U113" s="2" t="n">
+      <c r="U113" s="3" t="n">
         <v>45181</v>
       </c>
-      <c r="V113" s="2" t="n">
+      <c r="V113" s="3" t="n">
         <v>45195</v>
       </c>
-      <c r="W113" s="2" t="n">
+      <c r="W113" s="3" t="n">
         <v>45209</v>
       </c>
-      <c r="X113" s="2" t="n">
+      <c r="X113" s="3" t="n">
         <v>45219</v>
       </c>
       <c r="Y113" t="inlineStr">
@@ -15895,7 +14311,6 @@
           <t>TWO DEGREES CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr"/>
       <c r="AA113" t="n">
         <v>0</v>
       </c>
@@ -15938,14 +14353,9 @@
       <c r="AN113" t="n">
         <v>0</v>
       </c>
-      <c r="AO113" t="inlineStr"/>
       <c r="AP113" t="n">
         <v>12.24</v>
       </c>
-      <c r="AQ113" t="inlineStr"/>
-      <c r="AR113" t="inlineStr"/>
-      <c r="AS113" t="inlineStr"/>
-      <c r="AT113" t="inlineStr"/>
       <c r="AU113" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16016,10 +14426,9 @@
       <c r="O114" t="n">
         <v>1</v>
       </c>
-      <c r="P114" s="2" t="n">
+      <c r="P114" s="3" t="n">
         <v>45375</v>
       </c>
-      <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr">
         <is>
           <t>P00775437NP</t>
@@ -16030,19 +14439,19 @@
           <t>23LG0128</t>
         </is>
       </c>
-      <c r="T114" s="2" t="n">
+      <c r="T114" s="3" t="n">
         <v>45156</v>
       </c>
-      <c r="U114" s="2" t="n">
+      <c r="U114" s="3" t="n">
         <v>45167</v>
       </c>
-      <c r="V114" s="2" t="n">
+      <c r="V114" s="3" t="n">
         <v>45180</v>
       </c>
-      <c r="W114" s="2" t="n">
+      <c r="W114" s="3" t="n">
         <v>45188</v>
       </c>
-      <c r="X114" s="2" t="n">
+      <c r="X114" s="3" t="n">
         <v>45196</v>
       </c>
       <c r="Y114" t="inlineStr">
@@ -16050,7 +14459,6 @@
           <t>R. Baudon Construction  &amp; Supply Co.</t>
         </is>
       </c>
-      <c r="Z114" t="inlineStr"/>
       <c r="AA114" t="n">
         <v>0</v>
       </c>
@@ -16093,14 +14501,9 @@
       <c r="AN114" t="n">
         <v>0</v>
       </c>
-      <c r="AO114" t="inlineStr"/>
       <c r="AP114" t="n">
         <v>3.24</v>
       </c>
-      <c r="AQ114" t="inlineStr"/>
-      <c r="AR114" t="inlineStr"/>
-      <c r="AS114" t="inlineStr"/>
-      <c r="AT114" t="inlineStr"/>
       <c r="AU114" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16171,10 +14574,9 @@
       <c r="O115" t="n">
         <v>1</v>
       </c>
-      <c r="P115" s="2" t="n">
+      <c r="P115" s="3" t="n">
         <v>45446</v>
       </c>
-      <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr">
         <is>
           <t>P00775440NP</t>
@@ -16185,19 +14587,19 @@
           <t>23LG0131</t>
         </is>
       </c>
-      <c r="T115" s="2" t="n">
+      <c r="T115" s="3" t="n">
         <v>45156</v>
       </c>
-      <c r="U115" s="2" t="n">
+      <c r="U115" s="3" t="n">
         <v>45167</v>
       </c>
-      <c r="V115" s="2" t="n">
+      <c r="V115" s="3" t="n">
         <v>45180</v>
       </c>
-      <c r="W115" s="2" t="n">
+      <c r="W115" s="3" t="n">
         <v>45188</v>
       </c>
-      <c r="X115" s="2" t="n">
+      <c r="X115" s="3" t="n">
         <v>45196</v>
       </c>
       <c r="Y115" t="inlineStr">
@@ -16205,7 +14607,6 @@
           <t>R. Baudon Construction  &amp; Supply Co.</t>
         </is>
       </c>
-      <c r="Z115" t="inlineStr"/>
       <c r="AA115" t="n">
         <v>0</v>
       </c>
@@ -16248,14 +14649,9 @@
       <c r="AN115" t="n">
         <v>0</v>
       </c>
-      <c r="AO115" t="inlineStr"/>
       <c r="AP115" t="n">
         <v>7.24</v>
       </c>
-      <c r="AQ115" t="inlineStr"/>
-      <c r="AR115" t="inlineStr"/>
-      <c r="AS115" t="inlineStr"/>
-      <c r="AT115" t="inlineStr"/>
       <c r="AU115" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16326,10 +14722,9 @@
       <c r="O116" t="n">
         <v>1</v>
       </c>
-      <c r="P116" s="2" t="n">
+      <c r="P116" s="3" t="n">
         <v>45415</v>
       </c>
-      <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr">
         <is>
           <t>P00775438NP</t>
@@ -16340,19 +14735,19 @@
           <t>23LG0129</t>
         </is>
       </c>
-      <c r="T116" s="2" t="n">
+      <c r="T116" s="3" t="n">
         <v>45156</v>
       </c>
-      <c r="U116" s="2" t="n">
+      <c r="U116" s="3" t="n">
         <v>45167</v>
       </c>
-      <c r="V116" s="2" t="n">
+      <c r="V116" s="3" t="n">
         <v>45180</v>
       </c>
-      <c r="W116" s="2" t="n">
+      <c r="W116" s="3" t="n">
         <v>45188</v>
       </c>
-      <c r="X116" s="2" t="n">
+      <c r="X116" s="3" t="n">
         <v>45196</v>
       </c>
       <c r="Y116" t="inlineStr">
@@ -16360,7 +14755,6 @@
           <t>R. Baudon Construction  &amp; Supply Co.</t>
         </is>
       </c>
-      <c r="Z116" t="inlineStr"/>
       <c r="AA116" t="n">
         <v>0</v>
       </c>
@@ -16403,14 +14797,9 @@
       <c r="AN116" t="n">
         <v>0</v>
       </c>
-      <c r="AO116" t="inlineStr"/>
       <c r="AP116" t="n">
         <v>7.24</v>
       </c>
-      <c r="AQ116" t="inlineStr"/>
-      <c r="AR116" t="inlineStr"/>
-      <c r="AS116" t="inlineStr"/>
-      <c r="AT116" t="inlineStr"/>
       <c r="AU116" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16481,10 +14870,9 @@
       <c r="O117" t="n">
         <v>1</v>
       </c>
-      <c r="P117" s="2" t="n">
+      <c r="P117" s="3" t="n">
         <v>45356</v>
       </c>
-      <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr">
         <is>
           <t>P00775439NP</t>
@@ -16495,19 +14883,19 @@
           <t>23LG0130</t>
         </is>
       </c>
-      <c r="T117" s="2" t="n">
+      <c r="T117" s="3" t="n">
         <v>45156</v>
       </c>
-      <c r="U117" s="2" t="n">
+      <c r="U117" s="3" t="n">
         <v>45167</v>
       </c>
-      <c r="V117" s="2" t="n">
+      <c r="V117" s="3" t="n">
         <v>45180</v>
       </c>
-      <c r="W117" s="2" t="n">
+      <c r="W117" s="3" t="n">
         <v>45188</v>
       </c>
-      <c r="X117" s="2" t="n">
+      <c r="X117" s="3" t="n">
         <v>45196</v>
       </c>
       <c r="Y117" t="inlineStr">
@@ -16515,7 +14903,6 @@
           <t>R. Baudon Construction  &amp; Supply Co.</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="n">
         <v>0</v>
       </c>
@@ -16558,14 +14945,9 @@
       <c r="AN117" t="n">
         <v>0</v>
       </c>
-      <c r="AO117" t="inlineStr"/>
       <c r="AP117" t="n">
         <v>4.24</v>
       </c>
-      <c r="AQ117" t="inlineStr"/>
-      <c r="AR117" t="inlineStr"/>
-      <c r="AS117" t="inlineStr"/>
-      <c r="AT117" t="inlineStr"/>
       <c r="AU117" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16636,10 +15018,9 @@
       <c r="O118" t="n">
         <v>1</v>
       </c>
-      <c r="P118" s="2" t="n">
+      <c r="P118" s="3" t="n">
         <v>45484</v>
       </c>
-      <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr">
         <is>
           <t>P00775436NP</t>
@@ -16650,19 +15031,19 @@
           <t>23LG0127</t>
         </is>
       </c>
-      <c r="T118" s="2" t="n">
+      <c r="T118" s="3" t="n">
         <v>45156</v>
       </c>
-      <c r="U118" s="2" t="n">
+      <c r="U118" s="3" t="n">
         <v>45167</v>
       </c>
-      <c r="V118" s="2" t="n">
+      <c r="V118" s="3" t="n">
         <v>45180</v>
       </c>
-      <c r="W118" s="2" t="n">
+      <c r="W118" s="3" t="n">
         <v>45188</v>
       </c>
-      <c r="X118" s="2" t="n">
+      <c r="X118" s="3" t="n">
         <v>45196</v>
       </c>
       <c r="Y118" t="inlineStr">
@@ -16670,7 +15051,6 @@
           <t>R. Baudon Construction  &amp; Supply Co.</t>
         </is>
       </c>
-      <c r="Z118" t="inlineStr"/>
       <c r="AA118" t="n">
         <v>0</v>
       </c>
@@ -16713,14 +15093,9 @@
       <c r="AN118" t="n">
         <v>0</v>
       </c>
-      <c r="AO118" t="inlineStr"/>
       <c r="AP118" t="n">
         <v>7.24</v>
       </c>
-      <c r="AQ118" t="inlineStr"/>
-      <c r="AR118" t="inlineStr"/>
-      <c r="AS118" t="inlineStr"/>
-      <c r="AT118" t="inlineStr"/>
       <c r="AU118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16778,7 +15153,6 @@
       <c r="L119" t="n">
         <v>1</v>
       </c>
-      <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16787,14 +15161,11 @@
       <c r="O119" t="n">
         <v>1</v>
       </c>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr">
         <is>
           <t>BEFF L003-2024</t>
         </is>
       </c>
-      <c r="S119" t="inlineStr"/>
       <c r="T119" t="inlineStr">
         <is>
           <t>June 28-July 18, 2024</t>
@@ -16810,10 +15181,6 @@
           <t>July 18, 2024</t>
         </is>
       </c>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
-      <c r="Z119" t="inlineStr"/>
       <c r="AA119" t="n">
         <v>0</v>
       </c>
@@ -16856,14 +15223,9 @@
       <c r="AN119" t="n">
         <v>0</v>
       </c>
-      <c r="AO119" t="inlineStr"/>
       <c r="AP119" t="n">
         <v>4.25</v>
       </c>
-      <c r="AQ119" t="inlineStr"/>
-      <c r="AR119" t="inlineStr"/>
-      <c r="AS119" t="inlineStr"/>
-      <c r="AT119" t="inlineStr"/>
       <c r="AU119" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -16932,23 +15294,15 @@
       <c r="O120" t="n">
         <v>1</v>
       </c>
-      <c r="P120" s="2" t="n">
+      <c r="P120" s="3" t="n">
         <v>45808</v>
       </c>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" s="2" t="n">
+      <c r="U120" s="3" t="n">
         <v>45566</v>
       </c>
-      <c r="V120" s="2" t="n">
+      <c r="V120" s="3" t="n">
         <v>45580</v>
       </c>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
-      <c r="Z120" t="inlineStr"/>
       <c r="AA120" t="n">
         <v>0</v>
       </c>
@@ -16991,14 +15345,9 @@
       <c r="AN120" t="n">
         <v>0.21</v>
       </c>
-      <c r="AO120" t="inlineStr"/>
       <c r="AP120" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ120" t="inlineStr"/>
-      <c r="AR120" t="inlineStr"/>
-      <c r="AS120" t="inlineStr"/>
-      <c r="AT120" t="inlineStr"/>
       <c r="AU120" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -17067,30 +15416,25 @@
       <c r="O121" t="n">
         <v>1</v>
       </c>
-      <c r="P121" s="2" t="n">
+      <c r="P121" s="3" t="n">
         <v>45808</v>
       </c>
-      <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr">
         <is>
           <t>SDD0-019-2024</t>
         </is>
       </c>
-      <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr">
         <is>
           <t>9/23/2024</t>
         </is>
       </c>
-      <c r="U121" s="2" t="n">
+      <c r="U121" s="3" t="n">
         <v>45566</v>
       </c>
-      <c r="V121" s="2" t="n">
+      <c r="V121" s="3" t="n">
         <v>45580</v>
       </c>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
           <t>REALIGNED FROM MANGAYOSN ES AND MONTEVISTA NHS TO MUNOZ ES</t>
@@ -17138,7 +15482,6 @@
       <c r="AN121" t="n">
         <v>0.11</v>
       </c>
-      <c r="AO121" t="inlineStr"/>
       <c r="AP121" t="n">
         <v>5.25</v>
       </c>
@@ -17151,7 +15494,6 @@
       <c r="AS121" t="n">
         <v>7051860.44</v>
       </c>
-      <c r="AT121" t="inlineStr"/>
       <c r="AU121" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -17209,7 +15551,6 @@
       <c r="L122" t="n">
         <v>1</v>
       </c>
-      <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -17218,8 +15559,6 @@
       <c r="O122" t="n">
         <v>0.5</v>
       </c>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr">
         <is>
           <t># 2025-03-03</t>
@@ -17230,19 +15569,19 @@
           <t># 2025-03-03</t>
         </is>
       </c>
-      <c r="T122" s="2" t="n">
+      <c r="T122" s="3" t="n">
         <v>45607</v>
       </c>
-      <c r="U122" s="2" t="n">
+      <c r="U122" s="3" t="n">
         <v>45614</v>
       </c>
-      <c r="V122" s="2" t="n">
+      <c r="V122" s="3" t="n">
         <v>45628</v>
       </c>
-      <c r="W122" s="2" t="n">
+      <c r="W122" s="3" t="n">
         <v>45720</v>
       </c>
-      <c r="X122" s="2" t="n">
+      <c r="X122" s="3" t="n">
         <v>45744</v>
       </c>
       <c r="Y122" t="inlineStr">
@@ -17250,7 +15589,6 @@
           <t>Matt Glass Aluminum/Const. Supply and Allied Services</t>
         </is>
       </c>
-      <c r="Z122" t="inlineStr"/>
       <c r="AA122" t="n">
         <v>0</v>
       </c>
@@ -17293,12 +15631,6 @@
       <c r="AN122" t="n">
         <v>0.15</v>
       </c>
-      <c r="AO122" t="inlineStr"/>
-      <c r="AP122" t="inlineStr"/>
-      <c r="AQ122" t="inlineStr"/>
-      <c r="AR122" t="inlineStr"/>
-      <c r="AS122" t="inlineStr"/>
-      <c r="AT122" t="inlineStr"/>
       <c r="AU122" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -17356,7 +15688,6 @@
       <c r="L123" t="n">
         <v>1</v>
       </c>
-      <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -17365,8 +15696,6 @@
       <c r="O123" t="n">
         <v>0.4</v>
       </c>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr">
         <is>
           <t># 2025-03-03</t>
@@ -17377,19 +15706,19 @@
           <t># 2025-03-03</t>
         </is>
       </c>
-      <c r="T123" s="2" t="n">
+      <c r="T123" s="3" t="n">
         <v>45607</v>
       </c>
-      <c r="U123" s="2" t="n">
+      <c r="U123" s="3" t="n">
         <v>45614</v>
       </c>
-      <c r="V123" s="2" t="n">
+      <c r="V123" s="3" t="n">
         <v>45628</v>
       </c>
-      <c r="W123" s="2" t="n">
+      <c r="W123" s="3" t="n">
         <v>45720</v>
       </c>
-      <c r="X123" s="2" t="n">
+      <c r="X123" s="3" t="n">
         <v>45744</v>
       </c>
       <c r="Y123" t="inlineStr">
@@ -17397,7 +15726,6 @@
           <t>Matt Glass Aluminum/Const. Supply and Allied Services</t>
         </is>
       </c>
-      <c r="Z123" t="inlineStr"/>
       <c r="AA123" t="n">
         <v>0</v>
       </c>
@@ -17440,12 +15768,6 @@
       <c r="AN123" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="AO123" t="inlineStr"/>
-      <c r="AP123" t="inlineStr"/>
-      <c r="AQ123" t="inlineStr"/>
-      <c r="AR123" t="inlineStr"/>
-      <c r="AS123" t="inlineStr"/>
-      <c r="AT123" t="inlineStr"/>
       <c r="AU123" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -17503,7 +15825,6 @@
       <c r="L124" t="n">
         <v>1</v>
       </c>
-      <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -17512,8 +15833,6 @@
       <c r="O124" t="n">
         <v>0.6</v>
       </c>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr">
         <is>
           <t># 2025-03-03</t>
@@ -17524,19 +15843,19 @@
           <t># 2025-03-03</t>
         </is>
       </c>
-      <c r="T124" s="2" t="n">
+      <c r="T124" s="3" t="n">
         <v>45607</v>
       </c>
-      <c r="U124" s="2" t="n">
+      <c r="U124" s="3" t="n">
         <v>45614</v>
       </c>
-      <c r="V124" s="2" t="n">
+      <c r="V124" s="3" t="n">
         <v>45628</v>
       </c>
-      <c r="W124" s="2" t="n">
+      <c r="W124" s="3" t="n">
         <v>45720</v>
       </c>
-      <c r="X124" s="2" t="n">
+      <c r="X124" s="3" t="n">
         <v>45744</v>
       </c>
       <c r="Y124" t="inlineStr">
@@ -17544,7 +15863,6 @@
           <t>Matt Glass Aluminum/Const. Supply and Allied Services</t>
         </is>
       </c>
-      <c r="Z124" t="inlineStr"/>
       <c r="AA124" t="n">
         <v>0</v>
       </c>
@@ -17587,12 +15905,6 @@
       <c r="AN124" t="n">
         <v>0.25</v>
       </c>
-      <c r="AO124" t="inlineStr"/>
-      <c r="AP124" t="inlineStr"/>
-      <c r="AQ124" t="inlineStr"/>
-      <c r="AR124" t="inlineStr"/>
-      <c r="AS124" t="inlineStr"/>
-      <c r="AT124" t="inlineStr"/>
       <c r="AU124" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -17666,7 +15978,6 @@
           <t>April 17, 2025</t>
         </is>
       </c>
-      <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr">
         <is>
           <t>DS-RRBATCH 1-2024-H-LOT 1</t>
@@ -17677,7 +15988,6 @@
           <t>DS-RRBATCH 1-2024-H-LOT 1</t>
         </is>
       </c>
-      <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
@@ -17688,7 +15998,6 @@
           <t>August 27, 2024</t>
         </is>
       </c>
-      <c r="W125" t="inlineStr"/>
       <c r="X125" t="inlineStr">
         <is>
           <t>November 18, 2024</t>
@@ -17699,7 +16008,6 @@
           <t>R.FABALE CONSTRUCTION CORPORATION</t>
         </is>
       </c>
-      <c r="Z125" t="inlineStr"/>
       <c r="AA125" t="n">
         <v>0</v>
       </c>
@@ -17742,14 +16050,9 @@
       <c r="AN125" t="n">
         <v>0</v>
       </c>
-      <c r="AO125" t="inlineStr"/>
       <c r="AP125" t="n">
         <v>4.25</v>
       </c>
-      <c r="AQ125" t="inlineStr"/>
-      <c r="AR125" t="inlineStr"/>
-      <c r="AS125" t="inlineStr"/>
-      <c r="AT125" t="inlineStr"/>
       <c r="AU125" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -17838,7 +16141,6 @@
           <t xml:space="preserve">DS-RR BATCH 1-2024-H-LOT 2 </t>
         </is>
       </c>
-      <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
@@ -17849,7 +16151,6 @@
           <t>August 27, 2024</t>
         </is>
       </c>
-      <c r="W126" t="inlineStr"/>
       <c r="X126" t="inlineStr">
         <is>
           <t>November 12, 2024</t>
@@ -17860,7 +16161,6 @@
           <t>BEBCON BUILDERS &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z126" t="inlineStr"/>
       <c r="AA126" t="n">
         <v>0</v>
       </c>
@@ -17903,14 +16203,9 @@
       <c r="AN126" t="n">
         <v>0</v>
       </c>
-      <c r="AO126" t="inlineStr"/>
       <c r="AP126" t="n">
         <v>4.25</v>
       </c>
-      <c r="AQ126" t="inlineStr"/>
-      <c r="AR126" t="inlineStr"/>
-      <c r="AS126" t="inlineStr"/>
-      <c r="AT126" t="inlineStr"/>
       <c r="AU126" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -17999,7 +16294,6 @@
           <t>DS-RR BATCH 1-2024-H-LOT 3</t>
         </is>
       </c>
-      <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
@@ -18010,7 +16304,6 @@
           <t>August 27, 2024</t>
         </is>
       </c>
-      <c r="W127" t="inlineStr"/>
       <c r="X127" t="inlineStr">
         <is>
           <t>November 12, 2024</t>
@@ -18021,7 +16314,6 @@
           <t>BEBCON BUILDERS &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z127" t="inlineStr"/>
       <c r="AA127" t="n">
         <v>0</v>
       </c>
@@ -18064,14 +16356,9 @@
       <c r="AN127" t="n">
         <v>0</v>
       </c>
-      <c r="AO127" t="inlineStr"/>
       <c r="AP127" t="n">
         <v>3.25</v>
       </c>
-      <c r="AQ127" t="inlineStr"/>
-      <c r="AR127" t="inlineStr"/>
-      <c r="AS127" t="inlineStr"/>
-      <c r="AT127" t="inlineStr"/>
       <c r="AU127" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -18145,7 +16432,6 @@
           <t>150 CD from receipt of NTP</t>
         </is>
       </c>
-      <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr">
         <is>
           <t>ITB W-07-2024</t>
@@ -18176,8 +16462,6 @@
           <t>Resolution no.19,s. 2024 dated August 09, 2024</t>
         </is>
       </c>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
           <t>short of award; for NTP</t>
@@ -18225,12 +16509,6 @@
       <c r="AN128" t="n">
         <v>0.36</v>
       </c>
-      <c r="AO128" t="inlineStr"/>
-      <c r="AP128" t="inlineStr"/>
-      <c r="AQ128" t="inlineStr"/>
-      <c r="AR128" t="inlineStr"/>
-      <c r="AS128" t="inlineStr"/>
-      <c r="AT128" t="inlineStr"/>
       <c r="AU128" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -18304,7 +16582,6 @@
           <t>150 CD from receipt of NTP</t>
         </is>
       </c>
-      <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr">
         <is>
           <t>ITB W-08-2024</t>
@@ -18335,8 +16612,6 @@
           <t>Resolution no.20,s. 2024 dated August 09, 2024</t>
         </is>
       </c>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
           <t>short of award; for NTP</t>
@@ -18384,12 +16659,6 @@
       <c r="AN129" t="n">
         <v>0.2000000000000001</v>
       </c>
-      <c r="AO129" t="inlineStr"/>
-      <c r="AP129" t="inlineStr"/>
-      <c r="AQ129" t="inlineStr"/>
-      <c r="AR129" t="inlineStr"/>
-      <c r="AS129" t="inlineStr"/>
-      <c r="AT129" t="inlineStr"/>
       <c r="AU129" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -18463,7 +16732,6 @@
           <t>90 CD from receipt of NTP</t>
         </is>
       </c>
-      <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr">
         <is>
           <t>ITB W-09-2024</t>
@@ -18494,8 +16762,6 @@
           <t>Resolution no.21,s. 2024 dated August 09, 2024</t>
         </is>
       </c>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
           <t>short of award; for NTP</t>
@@ -18543,14 +16809,9 @@
       <c r="AN130" t="n">
         <v>0</v>
       </c>
-      <c r="AO130" t="inlineStr"/>
       <c r="AP130" t="n">
         <v>4.25</v>
       </c>
-      <c r="AQ130" t="inlineStr"/>
-      <c r="AR130" t="inlineStr"/>
-      <c r="AS130" t="inlineStr"/>
-      <c r="AT130" t="inlineStr"/>
       <c r="AU130" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -18634,7 +16895,6 @@
           <t>GS 2024 099</t>
         </is>
       </c>
-      <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr">
         <is>
           <t>July 9, 2024</t>
@@ -18655,13 +16915,11 @@
           <t>August 5, 2024</t>
         </is>
       </c>
-      <c r="X131" t="inlineStr"/>
       <c r="Y131" t="inlineStr">
         <is>
           <t>PHSMB</t>
         </is>
       </c>
-      <c r="Z131" t="inlineStr"/>
       <c r="AA131" t="n">
         <v>0</v>
       </c>
@@ -18704,14 +16962,9 @@
       <c r="AN131" t="n">
         <v>0</v>
       </c>
-      <c r="AO131" t="inlineStr"/>
       <c r="AP131" t="n">
         <v>3.25</v>
       </c>
-      <c r="AQ131" t="inlineStr"/>
-      <c r="AR131" t="inlineStr"/>
-      <c r="AS131" t="inlineStr"/>
-      <c r="AT131" t="inlineStr"/>
       <c r="AU131" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -18795,7 +17048,6 @@
           <t>GS 2024 100</t>
         </is>
       </c>
-      <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr">
         <is>
           <t>July 9, 2024</t>
@@ -18816,13 +17068,11 @@
           <t>August 5, 2024</t>
         </is>
       </c>
-      <c r="X132" t="inlineStr"/>
       <c r="Y132" t="inlineStr">
         <is>
           <t>FAJR</t>
         </is>
       </c>
-      <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="n">
         <v>0</v>
       </c>
@@ -18865,14 +17115,9 @@
       <c r="AN132" t="n">
         <v>0</v>
       </c>
-      <c r="AO132" t="inlineStr"/>
       <c r="AP132" t="n">
         <v>4.25</v>
       </c>
-      <c r="AQ132" t="inlineStr"/>
-      <c r="AR132" t="inlineStr"/>
-      <c r="AS132" t="inlineStr"/>
-      <c r="AT132" t="inlineStr"/>
       <c r="AU132" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -18930,7 +17175,6 @@
       <c r="L133" t="n">
         <v>1</v>
       </c>
-      <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18939,19 +17183,9 @@
       <c r="O133" t="n">
         <v>1</v>
       </c>
-      <c r="P133" s="2" t="n">
+      <c r="P133" s="3" t="n">
         <v>45884</v>
       </c>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr"/>
-      <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
-      <c r="Z133" t="inlineStr"/>
       <c r="AA133" t="n">
         <v>0</v>
       </c>
@@ -18994,14 +17228,9 @@
       <c r="AN133" t="n">
         <v>0.73</v>
       </c>
-      <c r="AO133" t="inlineStr"/>
       <c r="AP133" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ133" t="inlineStr"/>
-      <c r="AR133" t="inlineStr"/>
-      <c r="AS133" t="inlineStr"/>
-      <c r="AT133" t="inlineStr"/>
       <c r="AU133" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -19070,10 +17299,10 @@
       <c r="O134" t="n">
         <v>1</v>
       </c>
-      <c r="P134" s="2" t="n">
+      <c r="P134" s="3" t="n">
         <v>45641</v>
       </c>
-      <c r="Q134" s="2" t="n">
+      <c r="Q134" s="3" t="n">
         <v>45454</v>
       </c>
       <c r="R134" t="inlineStr">
@@ -19081,7 +17310,6 @@
           <t>INFRA002-062024</t>
         </is>
       </c>
-      <c r="S134" t="inlineStr"/>
       <c r="T134" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
@@ -19102,7 +17330,7 @@
           <t>SEPTEMBER 5, 2024</t>
         </is>
       </c>
-      <c r="X134" s="2" t="n">
+      <c r="X134" s="3" t="n">
         <v>45551</v>
       </c>
       <c r="Y134" t="inlineStr">
@@ -19110,7 +17338,6 @@
           <t>KCK Builders</t>
         </is>
       </c>
-      <c r="Z134" t="inlineStr"/>
       <c r="AA134" t="n">
         <v>0</v>
       </c>
@@ -19153,14 +17380,9 @@
       <c r="AN134" t="n">
         <v>0</v>
       </c>
-      <c r="AO134" t="inlineStr"/>
       <c r="AP134" t="n">
         <v>12.24</v>
       </c>
-      <c r="AQ134" t="inlineStr"/>
-      <c r="AR134" t="inlineStr"/>
-      <c r="AS134" t="inlineStr"/>
-      <c r="AT134" t="inlineStr"/>
       <c r="AU134" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -19229,33 +17451,29 @@
       <c r="O135" t="n">
         <v>1</v>
       </c>
-      <c r="P135" s="2" t="n">
+      <c r="P135" s="3" t="n">
         <v>45781</v>
       </c>
-      <c r="Q135" s="2" t="n">
+      <c r="Q135" s="3" t="n">
         <v>45771</v>
       </c>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
-      <c r="T135" s="2" t="n">
+      <c r="T135" s="3" t="n">
         <v>45580</v>
       </c>
-      <c r="U135" s="2" t="n">
+      <c r="U135" s="3" t="n">
         <v>45586</v>
       </c>
-      <c r="V135" s="2" t="n">
+      <c r="V135" s="3" t="n">
         <v>45600</v>
       </c>
-      <c r="W135" s="2" t="n">
+      <c r="W135" s="3" t="n">
         <v>45672</v>
       </c>
-      <c r="X135" t="inlineStr"/>
       <c r="Y135" t="inlineStr">
         <is>
           <t>R.Fabale Construction</t>
         </is>
       </c>
-      <c r="Z135" t="inlineStr"/>
       <c r="AA135" t="n">
         <v>0</v>
       </c>
@@ -19298,14 +17516,9 @@
       <c r="AN135" t="n">
         <v>0</v>
       </c>
-      <c r="AO135" t="inlineStr"/>
       <c r="AP135" t="n">
         <v>4.25</v>
       </c>
-      <c r="AQ135" t="inlineStr"/>
-      <c r="AR135" t="inlineStr"/>
-      <c r="AS135" t="inlineStr"/>
-      <c r="AT135" t="inlineStr"/>
       <c r="AU135" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -19374,25 +17587,22 @@
       <c r="O136" t="n">
         <v>1</v>
       </c>
-      <c r="P136" s="2" t="n">
+      <c r="P136" s="3" t="n">
         <v>45840</v>
       </c>
-      <c r="Q136" s="2" t="n">
+      <c r="Q136" s="3" t="n">
         <v>45719</v>
       </c>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
-      <c r="T136" s="2" t="n">
+      <c r="T136" s="3" t="n">
         <v>45439</v>
       </c>
-      <c r="U136" s="2" t="n">
+      <c r="U136" s="3" t="n">
         <v>45447</v>
       </c>
-      <c r="V136" s="2" t="n">
+      <c r="V136" s="3" t="n">
         <v>45460</v>
       </c>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" s="2" t="n">
+      <c r="X136" s="3" t="n">
         <v>45560</v>
       </c>
       <c r="Y136" t="inlineStr">
@@ -19400,7 +17610,6 @@
           <t>FAJR CONSTRUCTION PARTS AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z136" t="inlineStr"/>
       <c r="AA136" t="n">
         <v>0</v>
       </c>
@@ -19443,14 +17652,9 @@
       <c r="AN136" t="n">
         <v>0</v>
       </c>
-      <c r="AO136" t="inlineStr"/>
       <c r="AP136" t="n">
         <v>3.25</v>
       </c>
-      <c r="AQ136" t="inlineStr"/>
-      <c r="AR136" t="inlineStr"/>
-      <c r="AS136" t="inlineStr"/>
-      <c r="AT136" t="inlineStr"/>
       <c r="AU136" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -19508,7 +17712,6 @@
       <c r="L137" t="n">
         <v>1</v>
       </c>
-      <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19522,8 +17725,6 @@
           <t>01/31/2025</t>
         </is>
       </c>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
       <c r="S137" t="inlineStr">
         <is>
           <t>2024-08-358</t>
@@ -19559,7 +17760,6 @@
           <t>Najah Construction Supply</t>
         </is>
       </c>
-      <c r="Z137" t="inlineStr"/>
       <c r="AA137" t="n">
         <v>0</v>
       </c>
@@ -19602,14 +17802,9 @@
       <c r="AN137" t="n">
         <v>0</v>
       </c>
-      <c r="AO137" t="inlineStr"/>
       <c r="AP137" t="n">
         <v>1.25</v>
       </c>
-      <c r="AQ137" t="inlineStr"/>
-      <c r="AR137" t="inlineStr"/>
-      <c r="AS137" t="inlineStr"/>
-      <c r="AT137" t="inlineStr"/>
       <c r="AU137" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -19667,7 +17862,6 @@
       <c r="L138" t="n">
         <v>1</v>
       </c>
-      <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
           <t>under procurement</t>
@@ -19676,16 +17870,6 @@
       <c r="O138" t="n">
         <v>0</v>
       </c>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
           <t>FOR ADVERTISEMENT</t>
@@ -19733,15 +17917,82 @@
       <c r="AN138" t="n">
         <v>0</v>
       </c>
-      <c r="AO138" t="inlineStr"/>
-      <c r="AP138" t="inlineStr"/>
-      <c r="AQ138" t="inlineStr"/>
-      <c r="AR138" t="inlineStr"/>
-      <c r="AS138" t="inlineStr"/>
-      <c r="AT138" t="inlineStr"/>
       <c r="AU138" t="inlineStr">
         <is>
           <t>under procurement</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AV2:AV138" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region XI/Region XI_REPAIR.xlsx
+++ b/Filtered_By_Region/Region XI/Region XI_REPAIR.xlsx
@@ -737,47 +737,8 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
       <c r="AM2" t="n">
         <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -847,47 +808,8 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
       <c r="AM3" t="n">
         <v>1</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -957,47 +879,8 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
       <c r="AM4" t="n">
         <v>1</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
@@ -1067,47 +950,8 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
       <c r="AM5" t="n">
         <v>1</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
@@ -1177,47 +1021,8 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
       <c r="AM6" t="n">
         <v>1</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
@@ -1287,47 +1092,8 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
       <c r="AM7" t="n">
         <v>1</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
@@ -1397,47 +1163,8 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
       <c r="AM8" t="n">
         <v>1</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
@@ -1507,47 +1234,8 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
       <c r="AM9" t="n">
         <v>1</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
@@ -1617,47 +1305,8 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
       <c r="AM10" t="n">
         <v>1</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
@@ -1732,47 +1381,8 @@
           <t>Waiting for Sub-aro</t>
         </is>
       </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
       <c r="AM11" t="n">
         <v>1</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
@@ -1847,47 +1457,8 @@
           <t>Waiting for Sub-aro</t>
         </is>
       </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
       <c r="AM12" t="n">
         <v>1</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
@@ -1962,47 +1533,8 @@
           <t>Waiting for Sub-aro</t>
         </is>
       </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
       <c r="AM13" t="n">
         <v>1</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
@@ -2072,47 +1604,8 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
       <c r="AM14" t="n">
         <v>1</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
@@ -2182,47 +1675,8 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
       <c r="AM15" t="n">
         <v>1</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
@@ -2292,47 +1746,8 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
       <c r="AM16" t="n">
         <v>1</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
@@ -2402,47 +1817,8 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
       <c r="AM17" t="n">
         <v>1</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
@@ -2512,47 +1888,8 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
       <c r="AM18" t="n">
         <v>1</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
@@ -2622,47 +1959,8 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
       <c r="AM19" t="n">
         <v>1</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
@@ -2732,47 +2030,8 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
       <c r="AM20" t="n">
         <v>1</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
@@ -2842,47 +2101,8 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
       <c r="AM21" t="n">
         <v>1</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
@@ -2957,48 +2177,9 @@
           <t>The Project was not implement because the buildings to be repair is beyond repair due to a  series of earthquake on year 2019</t>
         </is>
       </c>
-      <c r="AA22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
       <c r="AM22" t="n">
         <v>0</v>
       </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
       <c r="AU22" t="inlineStr">
         <is>
           <t>reverted</t>
@@ -3062,47 +2243,8 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
       <c r="AM23" t="n">
         <v>1</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
@@ -3172,47 +2314,8 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
       <c r="AM24" t="n">
         <v>1</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
@@ -3282,47 +2385,8 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
       <c r="AM25" t="n">
         <v>1</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
@@ -3392,47 +2456,8 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
       <c r="AM26" t="n">
         <v>1</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
@@ -3502,47 +2527,8 @@
       <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
       <c r="AM27" t="n">
         <v>1</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
@@ -3612,47 +2598,8 @@
       <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
       <c r="AM28" t="n">
         <v>1</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
@@ -3722,47 +2669,8 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0</v>
-      </c>
       <c r="AM29" t="n">
         <v>1</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>0</v>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
@@ -3832,47 +2740,8 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0</v>
-      </c>
       <c r="AM30" t="n">
         <v>1</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>0</v>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
@@ -3942,47 +2811,8 @@
       <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0</v>
-      </c>
       <c r="AM31" t="n">
         <v>1</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>0</v>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
@@ -4052,47 +2882,8 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0</v>
-      </c>
       <c r="AM32" t="n">
         <v>1</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>0</v>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
@@ -4162,47 +2953,8 @@
       <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>0</v>
-      </c>
       <c r="AM33" t="n">
         <v>1</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>0</v>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
@@ -4272,47 +3024,8 @@
       <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>0</v>
-      </c>
       <c r="AM34" t="n">
         <v>1</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>0</v>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
@@ -4382,47 +3095,8 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>0</v>
-      </c>
       <c r="AM35" t="n">
         <v>1</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>0</v>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
@@ -4492,47 +3166,8 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0</v>
-      </c>
       <c r="AM36" t="n">
         <v>1</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>0</v>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
@@ -4602,47 +3237,8 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>0</v>
-      </c>
       <c r="AM37" t="n">
         <v>1</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>0</v>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
@@ -4717,47 +3313,8 @@
           <t>Rebid</t>
         </is>
       </c>
-      <c r="AA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>0</v>
-      </c>
       <c r="AM38" t="n">
         <v>1</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>0</v>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
@@ -4832,47 +3389,8 @@
           <t>Rebid</t>
         </is>
       </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>0</v>
-      </c>
       <c r="AM39" t="n">
         <v>1</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>0</v>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
@@ -4942,47 +3460,8 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>0</v>
-      </c>
       <c r="AM40" t="n">
         <v>1</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>0</v>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
@@ -5052,47 +3531,8 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>39</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
       <c r="AM41" t="n">
         <v>1</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>0</v>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
@@ -5162,47 +3602,8 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0</v>
-      </c>
       <c r="AM42" t="n">
         <v>1</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>0</v>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
@@ -5272,47 +3673,8 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>0</v>
-      </c>
       <c r="AM43" t="n">
         <v>1</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>0</v>
       </c>
       <c r="AP43" t="inlineStr">
         <is>
@@ -5382,47 +3744,8 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>0</v>
-      </c>
       <c r="AM44" t="n">
         <v>1</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>0</v>
       </c>
       <c r="AP44" t="inlineStr">
         <is>
@@ -5492,47 +3815,8 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="AA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>0</v>
-      </c>
       <c r="AM45" t="n">
         <v>1</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>0</v>
       </c>
       <c r="AO45" t="n">
         <v>0</v>
@@ -5605,47 +3889,8 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>0</v>
-      </c>
       <c r="AM46" t="n">
         <v>1</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>0</v>
       </c>
       <c r="AO46" t="n">
         <v>0</v>
@@ -5761,47 +4006,8 @@
           <t>Repair of Classrooms kitchen, handwashing facility and gym</t>
         </is>
       </c>
-      <c r="AA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>0</v>
-      </c>
       <c r="AM47" t="n">
         <v>1</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>0</v>
       </c>
       <c r="AO47" t="n">
         <v>0</v>
@@ -5894,47 +4100,8 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="AA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>0</v>
-      </c>
       <c r="AM48" t="n">
         <v>1</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>0</v>
       </c>
       <c r="AO48" t="n">
         <v>0</v>
@@ -6050,47 +4217,8 @@
           <t xml:space="preserve">Repair of Classrooms, handwashinf facility and gym </t>
         </is>
       </c>
-      <c r="AA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>0</v>
-      </c>
       <c r="AM49" t="n">
         <v>1</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>0</v>
       </c>
       <c r="AO49" t="n">
         <v>0</v>
@@ -6201,47 +4329,8 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="AA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>0</v>
-      </c>
       <c r="AM50" t="n">
         <v>1</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>0</v>
       </c>
       <c r="AO50" t="n">
         <v>0</v>
@@ -6357,47 +4446,8 @@
           <t>Repair of Classroom and Gym</t>
         </is>
       </c>
-      <c r="AA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>0</v>
-      </c>
       <c r="AM51" t="n">
         <v>1</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>0</v>
       </c>
       <c r="AO51" t="n">
         <v>0</v>
@@ -6490,47 +4540,8 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="AA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>0</v>
-      </c>
       <c r="AM52" t="n">
         <v>1</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>0</v>
       </c>
       <c r="AO52" t="n">
         <v>0</v>
@@ -6623,47 +4634,8 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="AA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>0</v>
-      </c>
       <c r="AM53" t="n">
         <v>1</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>0</v>
       </c>
       <c r="AO53" t="n">
         <v>0</v>
@@ -6756,47 +4728,8 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="AA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>0</v>
-      </c>
       <c r="AM54" t="n">
         <v>1</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>0</v>
       </c>
       <c r="AO54" t="n">
         <v>0</v>
@@ -6889,47 +4822,8 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="AA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>0</v>
-      </c>
       <c r="AM55" t="n">
         <v>1</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>0</v>
       </c>
       <c r="AO55" t="n">
         <v>0</v>
@@ -7022,47 +4916,8 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="AA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>0</v>
-      </c>
       <c r="AM56" t="n">
         <v>1</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>0</v>
       </c>
       <c r="AO56" t="n">
         <v>0</v>
@@ -7155,47 +5010,8 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="AA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>0</v>
-      </c>
       <c r="AM57" t="n">
         <v>1</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>0</v>
       </c>
       <c r="AO57" t="n">
         <v>0</v>
@@ -7288,47 +5104,8 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="AA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>0</v>
-      </c>
       <c r="AM58" t="n">
         <v>1</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>0</v>
       </c>
       <c r="AO58" t="n">
         <v>0</v>
@@ -7421,47 +5198,8 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="AA59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>0</v>
-      </c>
       <c r="AM59" t="n">
         <v>1</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>0</v>
       </c>
       <c r="AO59" t="n">
         <v>0</v>
@@ -7554,47 +5292,8 @@
           <t>MAG Corporation</t>
         </is>
       </c>
-      <c r="AA60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>0</v>
-      </c>
       <c r="AM60" t="n">
         <v>1</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>0</v>
       </c>
       <c r="AO60" t="n">
         <v>0</v>
@@ -7687,47 +5386,8 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="AA61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>0</v>
-      </c>
       <c r="AM61" t="n">
         <v>1</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>0</v>
       </c>
       <c r="AO61" t="n">
         <v>0</v>
@@ -7820,47 +5480,8 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="AA62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>0</v>
-      </c>
       <c r="AM62" t="n">
         <v>1</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>0</v>
       </c>
       <c r="AO62" t="n">
         <v>0</v>
@@ -7976,47 +5597,8 @@
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="AA63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>0</v>
-      </c>
       <c r="AM63" t="n">
         <v>1</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>0</v>
       </c>
       <c r="AO63" t="n">
         <v>0</v>
@@ -8109,47 +5691,8 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>0</v>
-      </c>
       <c r="AM64" t="n">
         <v>1</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>0</v>
       </c>
       <c r="AO64" t="n">
         <v>0</v>
@@ -8247,47 +5790,8 @@
           <t>Waiting for Sub-aro</t>
         </is>
       </c>
-      <c r="AA65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>0</v>
-      </c>
       <c r="AM65" t="n">
         <v>1</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>0</v>
       </c>
       <c r="AO65" t="n">
         <v>0</v>
@@ -8398,47 +5902,8 @@
           <t>R. Fabale Construction Corporation</t>
         </is>
       </c>
-      <c r="AA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>0</v>
-      </c>
       <c r="AM66" t="n">
         <v>1</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>0</v>
       </c>
       <c r="AO66" t="n">
         <v>0</v>
@@ -8511,47 +5976,8 @@
       <c r="O67" t="n">
         <v>1</v>
       </c>
-      <c r="AA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>0</v>
-      </c>
       <c r="AM67" t="n">
         <v>1</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>0</v>
       </c>
       <c r="AO67" t="n">
         <v>0</v>
@@ -8624,47 +6050,8 @@
       <c r="O68" t="n">
         <v>1</v>
       </c>
-      <c r="AA68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>0</v>
-      </c>
       <c r="AM68" t="n">
         <v>1</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>0</v>
       </c>
       <c r="AO68" t="n">
         <v>0</v>
@@ -8737,47 +6124,8 @@
       <c r="O69" t="n">
         <v>1</v>
       </c>
-      <c r="AA69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>0</v>
-      </c>
       <c r="AM69" t="n">
         <v>1</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>0</v>
       </c>
       <c r="AO69" t="n">
         <v>0</v>
@@ -8850,47 +6198,8 @@
       <c r="O70" t="n">
         <v>1</v>
       </c>
-      <c r="AA70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>0</v>
-      </c>
       <c r="AM70" t="n">
         <v>1</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>0</v>
       </c>
       <c r="AO70" t="n">
         <v>0</v>
@@ -8963,47 +6272,8 @@
       <c r="O71" t="n">
         <v>1</v>
       </c>
-      <c r="AA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>0</v>
-      </c>
       <c r="AM71" t="n">
         <v>1</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>0</v>
       </c>
       <c r="AO71" t="n">
         <v>0</v>
@@ -9076,47 +6346,8 @@
       <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="AA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>0</v>
-      </c>
       <c r="AM72" t="n">
         <v>1</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>0</v>
       </c>
       <c r="AO72" t="n">
         <v>0</v>
@@ -9194,47 +6425,8 @@
           <t>April 03, 2022</t>
         </is>
       </c>
-      <c r="AA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>0</v>
-      </c>
       <c r="AM73" t="n">
         <v>1</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>0</v>
       </c>
       <c r="AO73" t="n">
         <v>0</v>
@@ -9307,47 +6499,8 @@
       <c r="O74" t="n">
         <v>1</v>
       </c>
-      <c r="AA74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>0</v>
-      </c>
       <c r="AM74" t="n">
         <v>1</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>0</v>
       </c>
       <c r="AO74" t="n">
         <v>0</v>
@@ -9425,47 +6578,8 @@
           <t>March 18, 2022</t>
         </is>
       </c>
-      <c r="AA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>0</v>
-      </c>
       <c r="AM75" t="n">
         <v>1</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>0</v>
       </c>
       <c r="AO75" t="n">
         <v>0</v>
@@ -9538,47 +6652,8 @@
       <c r="O76" t="n">
         <v>1</v>
       </c>
-      <c r="AA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>0</v>
-      </c>
       <c r="AM76" t="n">
         <v>1</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>0</v>
       </c>
       <c r="AO76" t="n">
         <v>0</v>
@@ -9651,47 +6726,8 @@
       <c r="O77" t="n">
         <v>1</v>
       </c>
-      <c r="AA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>0</v>
-      </c>
       <c r="AM77" t="n">
         <v>1</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>0</v>
       </c>
       <c r="AO77" t="n">
         <v>0</v>
@@ -9764,47 +6800,8 @@
       <c r="O78" t="n">
         <v>1</v>
       </c>
-      <c r="AA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>0</v>
-      </c>
       <c r="AM78" t="n">
         <v>1</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>0</v>
       </c>
       <c r="AO78" t="n">
         <v>0</v>
@@ -9877,47 +6874,8 @@
       <c r="O79" t="n">
         <v>1</v>
       </c>
-      <c r="AA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>0</v>
-      </c>
       <c r="AM79" t="n">
         <v>1</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>0</v>
       </c>
       <c r="AO79" t="n">
         <v>0</v>
@@ -9990,47 +6948,8 @@
       <c r="O80" t="n">
         <v>1</v>
       </c>
-      <c r="AA80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>0</v>
-      </c>
       <c r="AM80" t="n">
         <v>1</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>0</v>
       </c>
       <c r="AO80" t="n">
         <v>0</v>
@@ -10103,47 +7022,8 @@
       <c r="O81" t="n">
         <v>1</v>
       </c>
-      <c r="AA81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>0</v>
-      </c>
       <c r="AM81" t="n">
         <v>1</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>0</v>
       </c>
       <c r="AO81" t="n">
         <v>0</v>
@@ -10216,47 +7096,8 @@
       <c r="O82" t="n">
         <v>1</v>
       </c>
-      <c r="AA82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL82" t="n">
-        <v>0</v>
-      </c>
       <c r="AM82" t="n">
         <v>1</v>
-      </c>
-      <c r="AN82" t="n">
-        <v>0</v>
       </c>
       <c r="AO82" t="n">
         <v>0</v>
@@ -10329,47 +7170,8 @@
       <c r="O83" t="n">
         <v>1</v>
       </c>
-      <c r="AA83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL83" t="n">
-        <v>0</v>
-      </c>
       <c r="AM83" t="n">
         <v>1</v>
-      </c>
-      <c r="AN83" t="n">
-        <v>0</v>
       </c>
       <c r="AO83" t="n">
         <v>0</v>
@@ -10442,47 +7244,8 @@
       <c r="O84" t="n">
         <v>1</v>
       </c>
-      <c r="AA84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>0</v>
-      </c>
       <c r="AM84" t="n">
         <v>1</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>0</v>
       </c>
       <c r="AO84" t="n">
         <v>0</v>
@@ -10578,47 +7341,8 @@
           <t>Johnray Developer and supply</t>
         </is>
       </c>
-      <c r="AA85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL85" t="n">
-        <v>0</v>
-      </c>
       <c r="AM85" t="n">
         <v>1</v>
-      </c>
-      <c r="AN85" t="n">
-        <v>0</v>
       </c>
       <c r="AO85" t="n">
         <v>0</v>
@@ -10714,47 +7438,8 @@
           <t>Johnray Developer and supply</t>
         </is>
       </c>
-      <c r="AA86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL86" t="n">
-        <v>0</v>
-      </c>
       <c r="AM86" t="n">
         <v>1</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>0</v>
       </c>
       <c r="AO86" t="n">
         <v>0</v>
@@ -10842,47 +7527,8 @@
           <t>R.Fabale Const. Corp.</t>
         </is>
       </c>
-      <c r="AA87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>0</v>
-      </c>
       <c r="AM87" t="n">
         <v>1</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>0</v>
       </c>
       <c r="AO87" t="n">
         <v>0</v>
@@ -10970,47 +7616,8 @@
           <t>VGG Const. Corp.</t>
         </is>
       </c>
-      <c r="AA88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>0</v>
-      </c>
       <c r="AM88" t="n">
         <v>1</v>
-      </c>
-      <c r="AN88" t="n">
-        <v>0</v>
       </c>
       <c r="AO88" t="n">
         <v>0</v>
@@ -11098,47 +7705,8 @@
           <t>R.Fabale Const. Corp.</t>
         </is>
       </c>
-      <c r="AA89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL89" t="n">
-        <v>0</v>
-      </c>
       <c r="AM89" t="n">
         <v>1</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>0</v>
       </c>
       <c r="AO89" t="n">
         <v>0</v>
@@ -11224,47 +7792,8 @@
           <t>VGG Const. Corp.</t>
         </is>
       </c>
-      <c r="AA90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL90" t="n">
-        <v>0</v>
-      </c>
       <c r="AM90" t="n">
         <v>1</v>
-      </c>
-      <c r="AN90" t="n">
-        <v>0</v>
       </c>
       <c r="AO90" t="n">
         <v>0</v>
@@ -11337,47 +7866,8 @@
       <c r="O91" t="n">
         <v>1</v>
       </c>
-      <c r="AA91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL91" t="n">
-        <v>0</v>
-      </c>
       <c r="AM91" t="n">
         <v>1</v>
-      </c>
-      <c r="AN91" t="n">
-        <v>0</v>
       </c>
       <c r="AO91" t="n">
         <v>0</v>
@@ -11450,47 +7940,8 @@
       <c r="O92" t="n">
         <v>1</v>
       </c>
-      <c r="AA92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE92" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL92" t="n">
-        <v>0</v>
-      </c>
       <c r="AM92" t="n">
         <v>1</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>0</v>
       </c>
       <c r="AO92" t="n">
         <v>0</v>
@@ -11563,47 +8014,8 @@
       <c r="O93" t="n">
         <v>1</v>
       </c>
-      <c r="AA93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>0</v>
-      </c>
       <c r="AM93" t="n">
         <v>1</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>0</v>
       </c>
       <c r="AO93" t="n">
         <v>0</v>
@@ -11676,47 +8088,8 @@
       <c r="O94" t="n">
         <v>1</v>
       </c>
-      <c r="AA94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL94" t="n">
-        <v>0</v>
-      </c>
       <c r="AM94" t="n">
         <v>1</v>
-      </c>
-      <c r="AN94" t="n">
-        <v>0</v>
       </c>
       <c r="AO94" t="n">
         <v>0</v>
@@ -11789,47 +8162,8 @@
       <c r="O95" t="n">
         <v>1</v>
       </c>
-      <c r="AA95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>0</v>
-      </c>
       <c r="AM95" t="n">
         <v>1</v>
-      </c>
-      <c r="AN95" t="n">
-        <v>0</v>
       </c>
       <c r="AO95" t="n">
         <v>0</v>
@@ -11902,47 +8236,8 @@
       <c r="O96" t="n">
         <v>1</v>
       </c>
-      <c r="AA96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL96" t="n">
-        <v>0</v>
-      </c>
       <c r="AM96" t="n">
         <v>1</v>
-      </c>
-      <c r="AN96" t="n">
-        <v>0</v>
       </c>
       <c r="AO96" t="n">
         <v>0</v>
@@ -12015,47 +8310,8 @@
       <c r="O97" t="n">
         <v>1</v>
       </c>
-      <c r="AA97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL97" t="n">
-        <v>0</v>
-      </c>
       <c r="AM97" t="n">
         <v>1</v>
-      </c>
-      <c r="AN97" t="n">
-        <v>0</v>
       </c>
       <c r="AP97" t="inlineStr">
         <is>
@@ -12130,47 +8386,8 @@
       <c r="O98" t="n">
         <v>1</v>
       </c>
-      <c r="AA98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE98" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ98" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL98" t="n">
-        <v>0</v>
-      </c>
       <c r="AM98" t="n">
         <v>1</v>
-      </c>
-      <c r="AN98" t="n">
-        <v>0</v>
       </c>
       <c r="AP98" t="inlineStr">
         <is>
@@ -12245,47 +8462,8 @@
       <c r="O99" t="n">
         <v>1</v>
       </c>
-      <c r="AA99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ99" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL99" t="n">
-        <v>0</v>
-      </c>
       <c r="AM99" t="n">
         <v>1</v>
-      </c>
-      <c r="AN99" t="n">
-        <v>0</v>
       </c>
       <c r="AP99" t="inlineStr">
         <is>
@@ -12392,47 +8570,8 @@
           <t>MarkAnthony Construction and Supply JV Andrich Construction</t>
         </is>
       </c>
-      <c r="AA100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE100" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ100" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL100" t="n">
-        <v>0</v>
-      </c>
       <c r="AM100" t="n">
         <v>1</v>
-      </c>
-      <c r="AN100" t="n">
-        <v>0</v>
       </c>
       <c r="AP100" t="n">
         <v>8.24</v>
@@ -12517,47 +8656,8 @@
           <t>23LC0084</t>
         </is>
       </c>
-      <c r="AA101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ101" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL101" t="n">
-        <v>0</v>
-      </c>
       <c r="AM101" t="n">
         <v>1</v>
-      </c>
-      <c r="AN101" t="n">
-        <v>0</v>
       </c>
       <c r="AP101" t="n">
         <v>7.24</v>
@@ -12667,47 +8767,8 @@
           <t>ZJN DEVELOPMENT CONSTRUCTION AND SUPPLY CORPORATION</t>
         </is>
       </c>
-      <c r="AA102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE102" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ102" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL102" t="n">
-        <v>0</v>
-      </c>
       <c r="AM102" t="n">
         <v>1</v>
-      </c>
-      <c r="AN102" t="n">
-        <v>0</v>
       </c>
       <c r="AP102" t="n">
         <v>10.24</v>
@@ -12817,47 +8878,8 @@
           <t>K &amp; C BUILDERS</t>
         </is>
       </c>
-      <c r="AA103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE103" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ103" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL103" t="n">
-        <v>0</v>
-      </c>
       <c r="AM103" t="n">
         <v>1</v>
-      </c>
-      <c r="AN103" t="n">
-        <v>0</v>
       </c>
       <c r="AP103" t="n">
         <v>10.24</v>
@@ -12967,47 +8989,8 @@
           <t>K &amp; C BUILDERS</t>
         </is>
       </c>
-      <c r="AA104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE104" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ104" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL104" t="n">
-        <v>0</v>
-      </c>
       <c r="AM104" t="n">
         <v>1</v>
-      </c>
-      <c r="AN104" t="n">
-        <v>0</v>
       </c>
       <c r="AP104" t="n">
         <v>10.24</v>
@@ -13117,47 +9100,8 @@
           <t>UPSCALE BUILDERS AND SUPPLY CORP.</t>
         </is>
       </c>
-      <c r="AA105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE105" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ105" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL105" t="n">
-        <v>0</v>
-      </c>
       <c r="AM105" t="n">
         <v>1</v>
-      </c>
-      <c r="AN105" t="n">
-        <v>0</v>
       </c>
       <c r="AP105" t="n">
         <v>6.24</v>
@@ -13267,47 +9211,8 @@
           <t>MARK ANTHONY CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="AA106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ106" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL106" t="n">
-        <v>0</v>
-      </c>
       <c r="AM106" t="n">
         <v>1</v>
-      </c>
-      <c r="AN106" t="n">
-        <v>0</v>
       </c>
       <c r="AP106" t="n">
         <v>10.24</v>
@@ -13419,47 +9324,8 @@
           <t>ZJN DEVELOPMENT CONSTRUCTION AND SUPPLY CORPORATION</t>
         </is>
       </c>
-      <c r="AA107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ107" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL107" t="n">
-        <v>0</v>
-      </c>
       <c r="AM107" t="n">
         <v>1</v>
-      </c>
-      <c r="AN107" t="n">
-        <v>0</v>
       </c>
       <c r="AP107" t="n">
         <v>10.24</v>
@@ -13569,47 +9435,8 @@
           <t>MJTP CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE108" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ108" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL108" t="n">
-        <v>0</v>
-      </c>
       <c r="AM108" t="n">
         <v>1</v>
-      </c>
-      <c r="AN108" t="n">
-        <v>0</v>
       </c>
       <c r="AP108" t="n">
         <v>10.24</v>
@@ -13717,47 +9544,8 @@
           <t>PRISM BUILDERS</t>
         </is>
       </c>
-      <c r="AA109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE109" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ109" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL109" t="n">
-        <v>0</v>
-      </c>
       <c r="AM109" t="n">
         <v>1</v>
-      </c>
-      <c r="AN109" t="n">
-        <v>0</v>
       </c>
       <c r="AP109" t="n">
         <v>12.24</v>
@@ -13865,47 +9653,8 @@
           <t>PRISM BUILDERS</t>
         </is>
       </c>
-      <c r="AA110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE110" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ110" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL110" t="n">
-        <v>0</v>
-      </c>
       <c r="AM110" t="n">
         <v>1</v>
-      </c>
-      <c r="AN110" t="n">
-        <v>0</v>
       </c>
       <c r="AP110" t="n">
         <v>3.24</v>
@@ -14015,47 +9764,8 @@
           <t>TWO DEGREES CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="AA111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE111" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ111" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL111" t="n">
-        <v>0</v>
-      </c>
       <c r="AM111" t="n">
         <v>1</v>
-      </c>
-      <c r="AN111" t="n">
-        <v>0</v>
       </c>
       <c r="AP111" t="n">
         <v>12.24</v>
@@ -14163,47 +9873,8 @@
           <t>PRISM BUILDERS</t>
         </is>
       </c>
-      <c r="AA112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE112" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ112" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL112" t="n">
-        <v>0</v>
-      </c>
       <c r="AM112" t="n">
         <v>1</v>
-      </c>
-      <c r="AN112" t="n">
-        <v>0</v>
       </c>
       <c r="AP112" t="n">
         <v>12.24</v>
@@ -14311,47 +9982,8 @@
           <t>TWO DEGREES CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="AA113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE113" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ113" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL113" t="n">
-        <v>0</v>
-      </c>
       <c r="AM113" t="n">
         <v>1</v>
-      </c>
-      <c r="AN113" t="n">
-        <v>0</v>
       </c>
       <c r="AP113" t="n">
         <v>12.24</v>
@@ -14459,47 +10091,8 @@
           <t>R. Baudon Construction  &amp; Supply Co.</t>
         </is>
       </c>
-      <c r="AA114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE114" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ114" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL114" t="n">
-        <v>0</v>
-      </c>
       <c r="AM114" t="n">
         <v>1</v>
-      </c>
-      <c r="AN114" t="n">
-        <v>0</v>
       </c>
       <c r="AP114" t="n">
         <v>3.24</v>
@@ -14607,47 +10200,8 @@
           <t>R. Baudon Construction  &amp; Supply Co.</t>
         </is>
       </c>
-      <c r="AA115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE115" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ115" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL115" t="n">
-        <v>0</v>
-      </c>
       <c r="AM115" t="n">
         <v>1</v>
-      </c>
-      <c r="AN115" t="n">
-        <v>0</v>
       </c>
       <c r="AP115" t="n">
         <v>7.24</v>
@@ -14755,47 +10309,8 @@
           <t>R. Baudon Construction  &amp; Supply Co.</t>
         </is>
       </c>
-      <c r="AA116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE116" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ116" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL116" t="n">
-        <v>0</v>
-      </c>
       <c r="AM116" t="n">
         <v>1</v>
-      </c>
-      <c r="AN116" t="n">
-        <v>0</v>
       </c>
       <c r="AP116" t="n">
         <v>7.24</v>
@@ -14903,47 +10418,8 @@
           <t>R. Baudon Construction  &amp; Supply Co.</t>
         </is>
       </c>
-      <c r="AA117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE117" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ117" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL117" t="n">
-        <v>0</v>
-      </c>
       <c r="AM117" t="n">
         <v>1</v>
-      </c>
-      <c r="AN117" t="n">
-        <v>0</v>
       </c>
       <c r="AP117" t="n">
         <v>4.24</v>
@@ -15051,47 +10527,8 @@
           <t>R. Baudon Construction  &amp; Supply Co.</t>
         </is>
       </c>
-      <c r="AA118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE118" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ118" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL118" t="n">
-        <v>0</v>
-      </c>
       <c r="AM118" t="n">
         <v>1</v>
-      </c>
-      <c r="AN118" t="n">
-        <v>0</v>
       </c>
       <c r="AP118" t="n">
         <v>7.24</v>
@@ -15181,47 +10618,8 @@
           <t>July 18, 2024</t>
         </is>
       </c>
-      <c r="AA119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE119" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ119" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL119" t="n">
-        <v>0</v>
-      </c>
       <c r="AM119" t="n">
         <v>1</v>
-      </c>
-      <c r="AN119" t="n">
-        <v>0</v>
       </c>
       <c r="AP119" t="n">
         <v>4.25</v>
@@ -15303,48 +10701,9 @@
       <c r="V120" s="3" t="n">
         <v>45580</v>
       </c>
-      <c r="AA120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE120" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ120" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL120" t="n">
-        <v>0</v>
-      </c>
       <c r="AM120" t="n">
         <v>0.79</v>
       </c>
-      <c r="AN120" t="n">
-        <v>0.21</v>
-      </c>
       <c r="AP120" t="n">
         <v>5.25</v>
       </c>
@@ -15440,48 +10799,9 @@
           <t>REALIGNED FROM MANGAYOSN ES AND MONTEVISTA NHS TO MUNOZ ES</t>
         </is>
       </c>
-      <c r="AA121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE121" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ121" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL121" t="n">
-        <v>0</v>
-      </c>
       <c r="AM121" t="n">
         <v>0.89</v>
       </c>
-      <c r="AN121" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AP121" t="n">
         <v>5.25</v>
       </c>
@@ -15589,48 +10909,9 @@
           <t>Matt Glass Aluminum/Const. Supply and Allied Services</t>
         </is>
       </c>
-      <c r="AA122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD122" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI122" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL122" t="n">
-        <v>0</v>
-      </c>
       <c r="AM122" t="n">
         <v>0.35</v>
       </c>
-      <c r="AN122" t="n">
-        <v>0.15</v>
-      </c>
       <c r="AU122" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -15726,48 +11007,9 @@
           <t>Matt Glass Aluminum/Const. Supply and Allied Services</t>
         </is>
       </c>
-      <c r="AA123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD123" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI123" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL123" t="n">
-        <v>0</v>
-      </c>
       <c r="AM123" t="n">
         <v>0.35</v>
       </c>
-      <c r="AN123" t="n">
-        <v>0.05000000000000004</v>
-      </c>
       <c r="AU123" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -15863,48 +11105,9 @@
           <t>Matt Glass Aluminum/Const. Supply and Allied Services</t>
         </is>
       </c>
-      <c r="AA124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD124" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI124" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL124" t="n">
-        <v>0</v>
-      </c>
       <c r="AM124" t="n">
         <v>0.35</v>
       </c>
-      <c r="AN124" t="n">
-        <v>0.25</v>
-      </c>
       <c r="AU124" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -16008,47 +11211,8 @@
           <t>R.FABALE CONSTRUCTION CORPORATION</t>
         </is>
       </c>
-      <c r="AA125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE125" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ125" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL125" t="n">
-        <v>0</v>
-      </c>
       <c r="AM125" t="n">
         <v>1</v>
-      </c>
-      <c r="AN125" t="n">
-        <v>0</v>
       </c>
       <c r="AP125" t="n">
         <v>4.25</v>
@@ -16161,47 +11325,8 @@
           <t>BEBCON BUILDERS &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="AA126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE126" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ126" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL126" t="n">
-        <v>0</v>
-      </c>
       <c r="AM126" t="n">
         <v>1</v>
-      </c>
-      <c r="AN126" t="n">
-        <v>0</v>
       </c>
       <c r="AP126" t="n">
         <v>4.25</v>
@@ -16314,47 +11439,8 @@
           <t>BEBCON BUILDERS &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="AA127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE127" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ127" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL127" t="n">
-        <v>0</v>
-      </c>
       <c r="AM127" t="n">
         <v>1</v>
-      </c>
-      <c r="AN127" t="n">
-        <v>0</v>
       </c>
       <c r="AP127" t="n">
         <v>3.25</v>
@@ -16467,48 +11553,9 @@
           <t>short of award; for NTP</t>
         </is>
       </c>
-      <c r="AA128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD128" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI128" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL128" t="n">
-        <v>0</v>
-      </c>
       <c r="AM128" t="n">
         <v>0.54</v>
       </c>
-      <c r="AN128" t="n">
-        <v>0.36</v>
-      </c>
       <c r="AU128" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -16617,48 +11664,9 @@
           <t>short of award; for NTP</t>
         </is>
       </c>
-      <c r="AA129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD129" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI129" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL129" t="n">
-        <v>0</v>
-      </c>
       <c r="AM129" t="n">
         <v>0.7</v>
       </c>
-      <c r="AN129" t="n">
-        <v>0.2000000000000001</v>
-      </c>
       <c r="AU129" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -16767,47 +11775,8 @@
           <t>short of award; for NTP</t>
         </is>
       </c>
-      <c r="AA130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE130" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ130" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL130" t="n">
-        <v>0</v>
-      </c>
       <c r="AM130" t="n">
         <v>1</v>
-      </c>
-      <c r="AN130" t="n">
-        <v>0</v>
       </c>
       <c r="AP130" t="n">
         <v>4.25</v>
@@ -16920,47 +11889,8 @@
           <t>PHSMB</t>
         </is>
       </c>
-      <c r="AA131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE131" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ131" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL131" t="n">
-        <v>0</v>
-      </c>
       <c r="AM131" t="n">
         <v>1</v>
-      </c>
-      <c r="AN131" t="n">
-        <v>0</v>
       </c>
       <c r="AP131" t="n">
         <v>3.25</v>
@@ -17073,47 +12003,8 @@
           <t>FAJR</t>
         </is>
       </c>
-      <c r="AA132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE132" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ132" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL132" t="n">
-        <v>0</v>
-      </c>
       <c r="AM132" t="n">
         <v>1</v>
-      </c>
-      <c r="AN132" t="n">
-        <v>0</v>
       </c>
       <c r="AP132" t="n">
         <v>4.25</v>
@@ -17186,48 +12077,9 @@
       <c r="P133" s="3" t="n">
         <v>45884</v>
       </c>
-      <c r="AA133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE133" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ133" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL133" t="n">
-        <v>0</v>
-      </c>
       <c r="AM133" t="n">
         <v>0.27</v>
       </c>
-      <c r="AN133" t="n">
-        <v>0.73</v>
-      </c>
       <c r="AP133" t="n">
         <v>5.25</v>
       </c>
@@ -17338,47 +12190,8 @@
           <t>KCK Builders</t>
         </is>
       </c>
-      <c r="AA134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE134" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ134" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL134" t="n">
-        <v>0</v>
-      </c>
       <c r="AM134" t="n">
         <v>1</v>
-      </c>
-      <c r="AN134" t="n">
-        <v>0</v>
       </c>
       <c r="AP134" t="n">
         <v>12.24</v>
@@ -17474,47 +12287,8 @@
           <t>R.Fabale Construction</t>
         </is>
       </c>
-      <c r="AA135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE135" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ135" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL135" t="n">
-        <v>0</v>
-      </c>
       <c r="AM135" t="n">
         <v>1</v>
-      </c>
-      <c r="AN135" t="n">
-        <v>0</v>
       </c>
       <c r="AP135" t="n">
         <v>4.25</v>
@@ -17610,47 +12384,8 @@
           <t>FAJR CONSTRUCTION PARTS AND SUPPLY</t>
         </is>
       </c>
-      <c r="AA136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE136" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ136" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL136" t="n">
-        <v>0</v>
-      </c>
       <c r="AM136" t="n">
         <v>1</v>
-      </c>
-      <c r="AN136" t="n">
-        <v>0</v>
       </c>
       <c r="AP136" t="n">
         <v>3.25</v>
@@ -17760,47 +12495,8 @@
           <t>Najah Construction Supply</t>
         </is>
       </c>
-      <c r="AA137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE137" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ137" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL137" t="n">
-        <v>0</v>
-      </c>
       <c r="AM137" t="n">
         <v>1</v>
-      </c>
-      <c r="AN137" t="n">
-        <v>0</v>
       </c>
       <c r="AP137" t="n">
         <v>1.25</v>
@@ -17875,46 +12571,7 @@
           <t>FOR ADVERTISEMENT</t>
         </is>
       </c>
-      <c r="AA138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC138" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH138" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL138" t="n">
-        <v>0</v>
-      </c>
       <c r="AM138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN138" t="n">
         <v>0</v>
       </c>
       <c r="AU138" t="inlineStr">
